--- a/covid19_drdfm/data/example-output/RI/df.xlsx
+++ b/covid19_drdfm/data/example-output/RI/df.xlsx
@@ -447,22 +447,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Employment1</t>
+          <t>GDP</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Employment2</t>
+          <t>Prod</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>CPIU</t>
+          <t>UI</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>PCEC</t>
+          <t>UR</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <v>40909</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1911968455201832</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.5095541401273884</v>
       </c>
     </row>
     <row r="3">
@@ -488,16 +488,16 @@
         <v>40940</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8170711884503437</v>
+        <v>0.989279417100794</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8258139200228848</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4804248097350872</v>
+        <v>0.2833730589866468</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9797476154831077</v>
+        <v>0.5031847133757961</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         <v>40969</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8135122768330407</v>
+        <v>0.9893951793941699</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8239012100173577</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4783596646895119</v>
+        <v>0.2332252896864677</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9810227532710519</v>
+        <v>0.4968152866242038</v>
       </c>
     </row>
     <row r="5">
@@ -522,16 +522,16 @@
         <v>41000</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8018882440272991</v>
+        <v>0.9891651840536905</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8180161564203544</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4580164258916395</v>
+        <v>0.1875731399216886</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9802673354121212</v>
+        <v>0.4968152866242038</v>
       </c>
     </row>
     <row r="6">
@@ -539,16 +539,16 @@
         <v>41030</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8182644828456356</v>
+        <v>0.9900616597160616</v>
       </c>
       <c r="C6" t="n">
-        <v>0.819039970538338</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2823120937051792</v>
+        <v>0.2201911423406391</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9781946328218968</v>
+        <v>0.4904458598726115</v>
       </c>
     </row>
     <row r="7">
@@ -556,16 +556,16 @@
         <v>41061</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8137537407112719</v>
+        <v>0.9898307739650215</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8175601904981341</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3408982227867237</v>
+        <v>0.2494224319446036</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9782729285877159</v>
+        <v>0.4904458598726115</v>
       </c>
     </row>
     <row r="8">
@@ -573,16 +573,16 @@
         <v>41091</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8032999920192481</v>
+        <v>0.9890369370049155</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8205909698480336</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3934463727922193</v>
+        <v>0.3171964092330109</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9782685951174721</v>
+        <v>0.4840764331210192</v>
       </c>
     </row>
     <row r="9">
@@ -590,16 +590,16 @@
         <v>41122</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8069065484055066</v>
+        <v>0.987932639293143</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8218528986159431</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6527359268372354</v>
+        <v>0.2122051442702267</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9766178983157136</v>
+        <v>0.4713375796178343</v>
       </c>
     </row>
     <row r="10">
@@ -607,16 +607,16 @@
         <v>41153</v>
       </c>
       <c r="B10" t="n">
-        <v>0.834591805387279</v>
+        <v>0.9880503743006548</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8220476470543482</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6040928049754837</v>
+        <v>0.2012283667139813</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9791251766773968</v>
+        <v>0.464968152866242</v>
       </c>
     </row>
     <row r="11">
@@ -624,16 +624,16 @@
         <v>41183</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8210965500458856</v>
+        <v>0.9874727869293818</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8210990580937662</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D11" t="n">
-        <v>0.506728251696605</v>
+        <v>0.260377528632993</v>
       </c>
       <c r="E11" t="n">
-        <v>0.98396198687112</v>
+        <v>0.4522292993630574</v>
       </c>
     </row>
     <row r="12">
@@ -641,16 +641,16 @@
         <v>41214</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8033629658599835</v>
+        <v>0.9888156308782419</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8212544385497698</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3006557725101743</v>
+        <v>0.2786068751080803</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9784922095456062</v>
+        <v>0.4458598726114649</v>
       </c>
     </row>
     <row r="13">
@@ -658,16 +658,16 @@
         <v>41244</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8068337204551878</v>
+        <v>0.9886248444356888</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8244209083586208</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D13" t="n">
-        <v>0.37413804795302</v>
+        <v>0.3201753156342715</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9770136390526549</v>
+        <v>0.4394904458598726</v>
       </c>
     </row>
     <row r="14">
@@ -675,16 +675,16 @@
         <v>41275</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8055543580226956</v>
+        <v>0.9908448464885018</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8223316824338748</v>
+        <v>0.2887883588189815</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4730736920152049</v>
+        <v>0.3415778924291968</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9824906505822639</v>
+        <v>0.4394904458598726</v>
       </c>
     </row>
     <row r="15">
@@ -692,16 +692,16 @@
         <v>41306</v>
       </c>
       <c r="B15" t="n">
-        <v>0.8095017709632395</v>
+        <v>0.9901872480834617</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8259306364023364</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6349860070635606</v>
+        <v>0.269171358179462</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9789649499577149</v>
+        <v>0.4331210191082802</v>
       </c>
     </row>
     <row r="16">
@@ -709,16 +709,16 @@
         <v>41334</v>
       </c>
       <c r="B16" t="n">
-        <v>0.805262264353838</v>
+        <v>0.992001230874022</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8204826442824038</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2471689513070562</v>
+        <v>0.2477387911844846</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9778175006322838</v>
+        <v>0.4331210191082802</v>
       </c>
     </row>
     <row r="17">
@@ -726,16 +726,16 @@
         <v>41365</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8185903306715626</v>
+        <v>0.9885163413662067</v>
       </c>
       <c r="C17" t="n">
-        <v>0.822175410606488</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2813645162752761</v>
+        <v>0.165294201925095</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9772029075462043</v>
+        <v>0.4331210191082802</v>
       </c>
     </row>
     <row r="18">
@@ -743,16 +743,16 @@
         <v>41395</v>
       </c>
       <c r="B18" t="n">
-        <v>0.815943793632123</v>
+        <v>0.9879855844998517</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8232958481094075</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3993518297214528</v>
+        <v>0.1836428030899429</v>
       </c>
       <c r="E18" t="n">
-        <v>0.978462438089242</v>
+        <v>0.4331210191082802</v>
       </c>
     </row>
     <row r="19">
@@ -760,16 +760,16 @@
         <v>41426</v>
       </c>
       <c r="B19" t="n">
-        <v>0.8112013334931283</v>
+        <v>0.9874303469492141</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8217901061473404</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4918638127890506</v>
+        <v>0.2526504526886448</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9807746156791444</v>
+        <v>0.4394904458598726</v>
       </c>
     </row>
     <row r="20">
@@ -777,16 +777,16 @@
         <v>41456</v>
       </c>
       <c r="B20" t="n">
-        <v>0.8165747062094404</v>
+        <v>0.9897477712116365</v>
       </c>
       <c r="C20" t="n">
-        <v>0.819524705107271</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4719810427311055</v>
+        <v>0.3246767248570082</v>
       </c>
       <c r="E20" t="n">
-        <v>0.979262308224759</v>
+        <v>0.4394904458598726</v>
       </c>
     </row>
     <row r="21">
@@ -794,16 +794,16 @@
         <v>41487</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8091941800468382</v>
+        <v>0.9896341040886788</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8244296392645107</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4921920362000497</v>
+        <v>0.2696036581274644</v>
       </c>
       <c r="E21" t="n">
-        <v>0.978809824789761</v>
+        <v>0.4394904458598726</v>
       </c>
     </row>
     <row r="22">
@@ -811,16 +811,16 @@
         <v>41518</v>
       </c>
       <c r="B22" t="n">
-        <v>0.8102815037840168</v>
+        <v>0.9900510564849913</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8220025398786427</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3976005690238599</v>
+        <v>0.1693075624389989</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9786423571171835</v>
+        <v>0.4331210191082802</v>
       </c>
     </row>
     <row r="23">
@@ -828,16 +828,16 @@
         <v>41548</v>
       </c>
       <c r="B23" t="n">
-        <v>0.7748893508307949</v>
+        <v>0.9892514206348768</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8234365294311478</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4050553748719518</v>
+        <v>0.2447094195241962</v>
       </c>
       <c r="E23" t="n">
-        <v>0.982760952384311</v>
+        <v>0.4267515923566879</v>
       </c>
     </row>
     <row r="24">
@@ -845,16 +845,16 @@
         <v>41579</v>
       </c>
       <c r="B24" t="n">
-        <v>0.8412095355145293</v>
+        <v>0.9892965491983117</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8256241022260118</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4666731454969064</v>
+        <v>0.2705102277513726</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9812503954983279</v>
+        <v>0.4203821656050956</v>
       </c>
     </row>
     <row r="25">
@@ -862,16 +862,16 @@
         <v>41609</v>
       </c>
       <c r="B25" t="n">
-        <v>0.8177730833014433</v>
+        <v>0.9891353991102838</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8167674345972542</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D25" t="n">
-        <v>0.504271433281398</v>
+        <v>0.3387506226048036</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9796268144426162</v>
+        <v>0.4076433121019108</v>
       </c>
     </row>
     <row r="26">
@@ -879,16 +879,16 @@
         <v>41640</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8203859482666936</v>
+        <v>0.9886370682247536</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8219631015294253</v>
+        <v>0.07480543737588921</v>
       </c>
       <c r="D26" t="n">
-        <v>0.493934346505972</v>
+        <v>0.3551122184757071</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9777682868082346</v>
+        <v>0.3949044585987261</v>
       </c>
     </row>
     <row r="27">
@@ -896,16 +896,16 @@
         <v>41671</v>
       </c>
       <c r="B27" t="n">
-        <v>0.8063658967333401</v>
+        <v>0.9891204724241696</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8207960185887884</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4316850960443767</v>
+        <v>0.2966350968048483</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9765583916561276</v>
+        <v>0.3821656050955414</v>
       </c>
     </row>
     <row r="28">
@@ -913,16 +913,16 @@
         <v>41699</v>
       </c>
       <c r="B28" t="n">
-        <v>0.8254627173521412</v>
+        <v>0.9885977855942749</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8257300281421081</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4759716818008413</v>
+        <v>0.2385260612687895</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9818597384704605</v>
+        <v>0.3694267515923567</v>
       </c>
     </row>
     <row r="29">
@@ -930,16 +930,16 @@
         <v>41730</v>
       </c>
       <c r="B29" t="n">
-        <v>0.8076266774238325</v>
+        <v>0.9889208820998395</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8270190966267184</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D29" t="n">
-        <v>0.467607911577312</v>
+        <v>0.1678871919586896</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9818450146574353</v>
+        <v>0.356687898089172</v>
       </c>
     </row>
     <row r="30">
@@ -947,16 +947,16 @@
         <v>41760</v>
       </c>
       <c r="B30" t="n">
-        <v>0.8126222115907127</v>
+        <v>0.9889993332156006</v>
       </c>
       <c r="C30" t="n">
-        <v>0.822667647186039</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4694354679379368</v>
+        <v>0.1822563467094221</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9813103476548442</v>
+        <v>0.3375796178343949</v>
       </c>
     </row>
     <row r="31">
@@ -964,16 +964,16 @@
         <v>41791</v>
       </c>
       <c r="B31" t="n">
-        <v>0.822080809866217</v>
+        <v>0.9892170106438377</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8277647645364593</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4420601940130754</v>
+        <v>0.2412672136564686</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9787811040867067</v>
+        <v>0.3248407643312102</v>
       </c>
     </row>
     <row r="32">
@@ -981,16 +981,16 @@
         <v>41821</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8123850160291054</v>
+        <v>0.9892795272469651</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8242174934096156</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4328522352647602</v>
+        <v>0.3402531134464081</v>
       </c>
       <c r="E32" t="n">
-        <v>0.981568512407801</v>
+        <v>0.3121019108280254</v>
       </c>
     </row>
     <row r="33">
@@ -998,16 +998,16 @@
         <v>41852</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8116286777528561</v>
+        <v>0.9898778693337936</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8217938869930206</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3723022077765162</v>
+        <v>0.2602759829596638</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9755787392253349</v>
+        <v>0.2993630573248408</v>
       </c>
     </row>
     <row r="34">
@@ -1015,16 +1015,16 @@
         <v>41883</v>
       </c>
       <c r="B34" t="n">
-        <v>0.8158018120719297</v>
+        <v>0.9897356646612705</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8266302034985644</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3832166305801797</v>
+        <v>0.1418463255080501</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9791237022486354</v>
+        <v>0.2929936305732484</v>
       </c>
     </row>
     <row r="35">
@@ -1032,16 +1032,16 @@
         <v>41913</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8300547056264846</v>
+        <v>0.991021442577693</v>
       </c>
       <c r="C35" t="n">
-        <v>0.824127956244755</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3705152434098531</v>
+        <v>0.2486929598740965</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9777252114392785</v>
+        <v>0.2802547770700636</v>
       </c>
     </row>
     <row r="36">
@@ -1049,16 +1049,16 @@
         <v>41944</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8061260573769912</v>
+        <v>0.9911991300720104</v>
       </c>
       <c r="C36" t="n">
-        <v>0.8257594276344505</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2910385964014466</v>
+        <v>0.2888663352658708</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9784373590744389</v>
+        <v>0.267515923566879</v>
       </c>
     </row>
     <row r="37">
@@ -1066,16 +1066,16 @@
         <v>41974</v>
       </c>
       <c r="B37" t="n">
-        <v>0.8144364776464362</v>
+        <v>0.9914705673346694</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8254627742564683</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2342588880723614</v>
+        <v>0.3200977620577706</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9778768331199639</v>
+        <v>0.2547770700636943</v>
       </c>
     </row>
     <row r="38">
@@ -1083,16 +1083,16 @@
         <v>42005</v>
       </c>
       <c r="B38" t="n">
-        <v>0.8257177919739254</v>
+        <v>0.9910237936877055</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8222752866023222</v>
+        <v>0.3250863433883506</v>
       </c>
       <c r="D38" t="n">
-        <v>0.07870096975326518</v>
+        <v>0.3505899881674989</v>
       </c>
       <c r="E38" t="n">
-        <v>0.973189625613409</v>
+        <v>0.2484076433121019</v>
       </c>
     </row>
     <row r="39">
@@ -1100,16 +1100,16 @@
         <v>42036</v>
       </c>
       <c r="B39" t="n">
-        <v>0.8034061642763356</v>
+        <v>0.9887086327807825</v>
       </c>
       <c r="C39" t="n">
-        <v>0.8250360465027927</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4991270461619542</v>
+        <v>0.2934121422822308</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9781517738182761</v>
+        <v>0.2420382165605096</v>
       </c>
     </row>
     <row r="40">
@@ -1117,16 +1117,16 @@
         <v>42064</v>
       </c>
       <c r="B40" t="n">
-        <v>0.8098794065368862</v>
+        <v>0.988608491451214</v>
       </c>
       <c r="C40" t="n">
-        <v>0.8183126748240903</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5066174053952723</v>
+        <v>0.2471043303705208</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9803666848320294</v>
+        <v>0.2356687898089172</v>
       </c>
     </row>
     <row r="41">
@@ -1134,16 +1134,16 @@
         <v>42095</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8204703357769915</v>
+        <v>0.9898149901898947</v>
       </c>
       <c r="C41" t="n">
-        <v>0.8254374346256902</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4289422565245661</v>
+        <v>0.1390423604379107</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9809898533911975</v>
+        <v>0.2292993630573248</v>
       </c>
     </row>
     <row r="42">
@@ -1151,16 +1151,16 @@
         <v>42125</v>
       </c>
       <c r="B42" t="n">
-        <v>0.8177257676594207</v>
+        <v>0.9892130075002742</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8277463401846614</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5349905266530876</v>
+        <v>0.2015552584043375</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9791221375105186</v>
+        <v>0.2229299363057325</v>
       </c>
     </row>
     <row r="43">
@@ -1168,16 +1168,16 @@
         <v>42156</v>
       </c>
       <c r="B43" t="n">
-        <v>0.8069081625681082</v>
+        <v>0.9893749091897336</v>
       </c>
       <c r="C43" t="n">
-        <v>0.8206217231591978</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5101022712614719</v>
+        <v>0.2419496687472098</v>
       </c>
       <c r="E43" t="n">
-        <v>0.978997543988299</v>
+        <v>0.2101910828025478</v>
       </c>
     </row>
     <row r="44">
@@ -1185,16 +1185,16 @@
         <v>42186</v>
       </c>
       <c r="B44" t="n">
-        <v>0.8074361484750139</v>
+        <v>0.9885502896207083</v>
       </c>
       <c r="C44" t="n">
-        <v>0.825997886786185</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4545412938591608</v>
+        <v>0.3480315855954753</v>
       </c>
       <c r="E44" t="n">
-        <v>0.977651602238532</v>
+        <v>0.2038216560509554</v>
       </c>
     </row>
     <row r="45">
@@ -1202,16 +1202,16 @@
         <v>42217</v>
       </c>
       <c r="B45" t="n">
-        <v>0.8192830710681206</v>
+        <v>0.9888500293423742</v>
       </c>
       <c r="C45" t="n">
-        <v>0.8200613956704663</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3796449961608567</v>
+        <v>0.2565623123530681</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9770182518838439</v>
+        <v>0.197452229299363</v>
       </c>
     </row>
     <row r="46">
@@ -1219,16 +1219,16 @@
         <v>42248</v>
       </c>
       <c r="B46" t="n">
-        <v>0.7944628639571398</v>
+        <v>0.9893997246273821</v>
       </c>
       <c r="C46" t="n">
-        <v>0.8198242076397693</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2738033829246919</v>
+        <v>0.1387205034065236</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9793377865484874</v>
+        <v>0.1910828025477707</v>
       </c>
     </row>
     <row r="47">
@@ -1236,16 +1236,16 @@
         <v>42278</v>
       </c>
       <c r="B47" t="n">
-        <v>0.8217058068666531</v>
+        <v>0.9901645605559998</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8269545291609484</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4264502145385787</v>
+        <v>0.2483526998326384</v>
       </c>
       <c r="E47" t="n">
-        <v>0.974613594179923</v>
+        <v>0.1910828025477707</v>
       </c>
     </row>
     <row r="48">
@@ -1253,16 +1253,16 @@
         <v>42309</v>
       </c>
       <c r="B48" t="n">
-        <v>0.8145543568902583</v>
+        <v>0.9898814775708202</v>
       </c>
       <c r="C48" t="n">
-        <v>0.8232721524409696</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4361074937639563</v>
+        <v>0.2904812615133404</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9783873368083413</v>
+        <v>0.1847133757961783</v>
       </c>
     </row>
     <row r="49">
@@ -1270,16 +1270,16 @@
         <v>42339</v>
       </c>
       <c r="B49" t="n">
-        <v>0.8301987447499016</v>
+        <v>0.9904020692146717</v>
       </c>
       <c r="C49" t="n">
-        <v>0.8251024926703656</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3291286649421136</v>
+        <v>0.3159876365995198</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9767338669535904</v>
+        <v>0.1847133757961783</v>
       </c>
     </row>
     <row r="50">
@@ -1287,16 +1287,16 @@
         <v>42370</v>
       </c>
       <c r="B50" t="n">
-        <v>0.8252302269764712</v>
+        <v>0.987283262178506</v>
       </c>
       <c r="C50" t="n">
-        <v>0.8190219459600729</v>
+        <v>0.5394128105832687</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3582333302100829</v>
+        <v>0.3652994453595024</v>
       </c>
       <c r="E50" t="n">
-        <v>0.98167363084452</v>
+        <v>0.1847133757961783</v>
       </c>
     </row>
     <row r="51">
@@ -1304,16 +1304,16 @@
         <v>42401</v>
       </c>
       <c r="B51" t="n">
-        <v>0.8168785545332913</v>
+        <v>0.9876963004821646</v>
       </c>
       <c r="C51" t="n">
-        <v>0.8227369194373043</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D51" t="n">
-        <v>0.317139331932879</v>
+        <v>0.2985259354615902</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9804857309116678</v>
+        <v>0.1783439490445859</v>
       </c>
     </row>
     <row r="52">
@@ -1321,16 +1321,16 @@
         <v>42430</v>
       </c>
       <c r="B52" t="n">
-        <v>0.8166172624762037</v>
+        <v>0.9866095231463353</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8244083425910558</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D52" t="n">
-        <v>0.527342817213182</v>
+        <v>0.2327180484637119</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9799677242166804</v>
+        <v>0.1719745222929936</v>
       </c>
     </row>
     <row r="53">
@@ -1338,16 +1338,16 @@
         <v>42461</v>
       </c>
       <c r="B53" t="n">
-        <v>0.8019526135529373</v>
+        <v>0.9893072205532398</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8218700422722833</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5600276253743403</v>
+        <v>0.1690729358431397</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9843664993593824</v>
+        <v>0.1719745222929936</v>
       </c>
     </row>
     <row r="54">
@@ -1355,16 +1355,16 @@
         <v>42491</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8089540979698909</v>
+        <v>0.9899699151418904</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8163254740842698</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4911291353516724</v>
+        <v>0.206085623395737</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9803337721967778</v>
+        <v>0.1719745222929936</v>
       </c>
     </row>
     <row r="55">
@@ -1372,16 +1372,16 @@
         <v>42522</v>
       </c>
       <c r="B55" t="n">
-        <v>0.8100965821959163</v>
+        <v>0.9898071032495046</v>
       </c>
       <c r="C55" t="n">
-        <v>0.8241843065082501</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5104932049111612</v>
+        <v>0.247663348027219</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9790415223734227</v>
+        <v>0.1656050955414012</v>
       </c>
     </row>
     <row r="56">
@@ -1389,16 +1389,16 @@
         <v>42552</v>
       </c>
       <c r="B56" t="n">
-        <v>0.8183967831948311</v>
+        <v>0.9906307102271406</v>
       </c>
       <c r="C56" t="n">
-        <v>0.8284285715748178</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3560972505717873</v>
+        <v>0.3439135448094887</v>
       </c>
       <c r="E56" t="n">
-        <v>0.981015281890797</v>
+        <v>0.1656050955414012</v>
       </c>
     </row>
     <row r="57">
@@ -1406,16 +1406,16 @@
         <v>42583</v>
       </c>
       <c r="B57" t="n">
-        <v>0.8147146482922014</v>
+        <v>0.990220732514428</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8202700264204013</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4669182200412889</v>
+        <v>0.2527463221600108</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9817396552186772</v>
+        <v>0.1592356687898089</v>
       </c>
     </row>
     <row r="58">
@@ -1423,16 +1423,16 @@
         <v>42614</v>
       </c>
       <c r="B58" t="n">
-        <v>0.8063220843276583</v>
+        <v>0.9901230636554899</v>
       </c>
       <c r="C58" t="n">
-        <v>0.8258780750537105</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5033182562553414</v>
+        <v>0.1468776520558945</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9787856550618544</v>
+        <v>0.1528662420382165</v>
       </c>
     </row>
     <row r="59">
@@ -1440,16 +1440,16 @@
         <v>42644</v>
       </c>
       <c r="B59" t="n">
-        <v>0.8080478076572463</v>
+        <v>0.9875553693035048</v>
       </c>
       <c r="C59" t="n">
-        <v>0.8186995853766205</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4901319569909405</v>
+        <v>0.2442654291864766</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9801327453041018</v>
+        <v>0.1464968152866242</v>
       </c>
     </row>
     <row r="60">
@@ -1457,16 +1457,16 @@
         <v>42675</v>
       </c>
       <c r="B60" t="n">
-        <v>0.8124965697135286</v>
+        <v>0.9882282688158635</v>
       </c>
       <c r="C60" t="n">
-        <v>0.8191507907084582</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4353786391004341</v>
+        <v>0.2877340869112092</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9760322058243911</v>
+        <v>0.1401273885350319</v>
       </c>
     </row>
     <row r="61">
@@ -1474,16 +1474,16 @@
         <v>42705</v>
       </c>
       <c r="B61" t="n">
-        <v>0.8139368519997429</v>
+        <v>0.9876968687432789</v>
       </c>
       <c r="C61" t="n">
-        <v>0.8228900852335511</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4986856164755484</v>
+        <v>0.3264070825377899</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9794266720231996</v>
+        <v>0.1337579617834395</v>
       </c>
     </row>
     <row r="62">
@@ -1491,16 +1491,16 @@
         <v>42736</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8067712217436585</v>
+        <v>0.9861791025746552</v>
       </c>
       <c r="C62" t="n">
-        <v>0.8233304665654089</v>
+        <v>0.07453361242577139</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5700337409100718</v>
+        <v>0.3760498048141253</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9846549301094776</v>
+        <v>0.1210191082802548</v>
       </c>
     </row>
     <row r="63">
@@ -1508,16 +1508,16 @@
         <v>42767</v>
       </c>
       <c r="B63" t="n">
-        <v>0.8182238647215494</v>
+        <v>0.9869792588393843</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8223746599484877</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D63" t="n">
-        <v>0.454856946818932</v>
+        <v>0.2823992810986402</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9820560951350176</v>
+        <v>0.1146496815286624</v>
       </c>
     </row>
     <row r="64">
@@ -1525,16 +1525,16 @@
         <v>42795</v>
       </c>
       <c r="B64" t="n">
-        <v>0.8270024494154147</v>
+        <v>0.9877442103995049</v>
       </c>
       <c r="C64" t="n">
-        <v>0.8195031242404242</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3578150554331625</v>
+        <v>0.2432100172325817</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9721032874061285</v>
+        <v>0.1146496815286624</v>
       </c>
     </row>
     <row r="65">
@@ -1542,16 +1542,16 @@
         <v>42826</v>
       </c>
       <c r="B65" t="n">
-        <v>0.813441790037817</v>
+        <v>0.9890336116740964</v>
       </c>
       <c r="C65" t="n">
-        <v>0.82201841942333</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D65" t="n">
-        <v>0.4379823293781138</v>
+        <v>0.1552451246322325</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9838459099350136</v>
+        <v>0.1082802547770701</v>
       </c>
     </row>
     <row r="66">
@@ -1559,16 +1559,16 @@
         <v>42856</v>
       </c>
       <c r="B66" t="n">
-        <v>0.8005818281819526</v>
+        <v>0.9899458606652853</v>
       </c>
       <c r="C66" t="n">
-        <v>0.8227593368173521</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3433451879440547</v>
+        <v>0.1977063869214365</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9778158293211698</v>
+        <v>0.1082802547770701</v>
       </c>
     </row>
     <row r="67">
@@ -1576,16 +1576,16 @@
         <v>42887</v>
       </c>
       <c r="B67" t="n">
-        <v>0.8154578610815599</v>
+        <v>0.989486020683814</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8220724558148131</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D67" t="n">
-        <v>0.410549347079741</v>
+        <v>0.2417658061514538</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9800304991106373</v>
+        <v>0.1082802547770701</v>
       </c>
     </row>
     <row r="68">
@@ -1593,16 +1593,16 @@
         <v>42917</v>
       </c>
       <c r="B68" t="n">
-        <v>0.8155122669478176</v>
+        <v>0.9908859385732091</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8215006893539329</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3952852113377378</v>
+        <v>0.3604452615527675</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9765079631200255</v>
+        <v>0.1146496815286624</v>
       </c>
     </row>
     <row r="69">
@@ -1610,16 +1610,16 @@
         <v>42948</v>
       </c>
       <c r="B69" t="n">
-        <v>0.8046915430680994</v>
+        <v>0.9900935781663853</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8196592654238672</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5609150233935125</v>
+        <v>0.2376982964739291</v>
       </c>
       <c r="E69" t="n">
-        <v>0.979102434513735</v>
+        <v>0.1146496815286624</v>
       </c>
     </row>
     <row r="70">
@@ -1627,16 +1627,16 @@
         <v>42979</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8335959615893236</v>
+        <v>0.9895735705918293</v>
       </c>
       <c r="C70" t="n">
-        <v>0.818047234278343</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6199503001817661</v>
+        <v>0.1406224711734742</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9794011733698422</v>
+        <v>0.1210191082802548</v>
       </c>
     </row>
     <row r="71">
@@ -1644,16 +1644,16 @@
         <v>43009</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7839068529739605</v>
+        <v>0.9880327277213546</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8201370254127243</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D71" t="n">
-        <v>0.4163665091399184</v>
+        <v>0.2495913672829438</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9848340411545677</v>
+        <v>0.1210191082802548</v>
       </c>
     </row>
     <row r="72">
@@ -1661,16 +1661,16 @@
         <v>43040</v>
       </c>
       <c r="B72" t="n">
-        <v>0.8136231473531693</v>
+        <v>0.9879642797234508</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8231901576691838</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5054531287823583</v>
+        <v>0.2733214069400039</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9771776535582584</v>
+        <v>0.1210191082802548</v>
       </c>
     </row>
     <row r="73">
@@ -1678,16 +1678,16 @@
         <v>43070</v>
       </c>
       <c r="B73" t="n">
-        <v>0.8103141008001655</v>
+        <v>0.9880409967003123</v>
       </c>
       <c r="C73" t="n">
-        <v>0.819973832527095</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D73" t="n">
-        <v>0.4790655403947179</v>
+        <v>0.3498767273710287</v>
       </c>
       <c r="E73" t="n">
-        <v>0.980097022167201</v>
+        <v>0.1146496815286624</v>
       </c>
     </row>
     <row r="74">
@@ -1695,16 +1695,16 @@
         <v>43101</v>
       </c>
       <c r="B74" t="n">
-        <v>0.8246466423312068</v>
+        <v>0.9895074038748476</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8201546828915486</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5579617292651852</v>
+        <v>0.3736395350073488</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9868247112645042</v>
+        <v>0.1146496815286624</v>
       </c>
     </row>
     <row r="75">
@@ -1712,16 +1712,16 @@
         <v>43132</v>
       </c>
       <c r="B75" t="n">
-        <v>0.8330659605477557</v>
+        <v>0.9899090158411252</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8290277501110732</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5115782435314746</v>
+        <v>0.2799606017521265</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9827496788666857</v>
+        <v>0.1019108280254777</v>
       </c>
     </row>
     <row r="76">
@@ -1729,16 +1729,16 @@
         <v>43160</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8075171382937057</v>
+        <v>0.9902803433637754</v>
       </c>
       <c r="C76" t="n">
-        <v>0.8228779466578857</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D76" t="n">
-        <v>0.4066752155894716</v>
+        <v>0.2326195933137231</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9834844979235169</v>
+        <v>0.09554140127388533</v>
       </c>
     </row>
     <row r="77">
@@ -1746,16 +1746,16 @@
         <v>43191</v>
       </c>
       <c r="B77" t="n">
-        <v>0.8102497836714794</v>
+        <v>0.9888865795868288</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8199781543527314</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D77" t="n">
-        <v>0.4864555798421895</v>
+        <v>0.1658397480686151</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9810957775417388</v>
+        <v>0.08917197452229297</v>
       </c>
     </row>
     <row r="78">
@@ -1763,16 +1763,16 @@
         <v>43221</v>
       </c>
       <c r="B78" t="n">
-        <v>0.8183984649936918</v>
+        <v>0.9889067761585496</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8267750524003048</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D78" t="n">
-        <v>0.4990037387758953</v>
+        <v>0.1812658169787376</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9817591353187322</v>
+        <v>0.08280254777070062</v>
       </c>
     </row>
     <row r="79">
@@ -1780,16 +1780,16 @@
         <v>43252</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8106440688255686</v>
+        <v>0.9891822433321221</v>
       </c>
       <c r="C79" t="n">
-        <v>0.8223965221927245</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D79" t="n">
-        <v>0.443536424040789</v>
+        <v>0.2543610131783404</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9784106657816277</v>
+        <v>0.08280254777070062</v>
       </c>
     </row>
     <row r="80">
@@ -1797,16 +1797,16 @@
         <v>43282</v>
       </c>
       <c r="B80" t="n">
-        <v>0.8198417357191273</v>
+        <v>0.9885157347404923</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8166722053316008</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4183183667114636</v>
+        <v>0.3727556928496717</v>
       </c>
       <c r="E80" t="n">
-        <v>0.979491595978044</v>
+        <v>0.07643312101910826</v>
       </c>
     </row>
     <row r="81">
@@ -1814,16 +1814,16 @@
         <v>43313</v>
       </c>
       <c r="B81" t="n">
-        <v>0.7853610245878195</v>
+        <v>0.9885670494743607</v>
       </c>
       <c r="C81" t="n">
-        <v>0.8238186390224658</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D81" t="n">
-        <v>0.4596972479140294</v>
+        <v>0.2499034096558707</v>
       </c>
       <c r="E81" t="n">
-        <v>0.975033970154923</v>
+        <v>0.08280254777070062</v>
       </c>
     </row>
     <row r="82">
@@ -1831,16 +1831,16 @@
         <v>43344</v>
       </c>
       <c r="B82" t="n">
-        <v>0.824129043682934</v>
+        <v>0.9880545547933516</v>
       </c>
       <c r="C82" t="n">
-        <v>0.8178823542293278</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D82" t="n">
-        <v>0.4715287686595205</v>
+        <v>0.1327347403221621</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9826209712153378</v>
+        <v>0.08280254777070062</v>
       </c>
     </row>
     <row r="83">
@@ -1848,16 +1848,16 @@
         <v>43374</v>
       </c>
       <c r="B83" t="n">
-        <v>0.819552886792289</v>
+        <v>0.9897456668138904</v>
       </c>
       <c r="C83" t="n">
-        <v>0.820674477890516</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D83" t="n">
-        <v>0.4961603152117828</v>
+        <v>0.2385539385992221</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9796210093737875</v>
+        <v>0.08280254777070062</v>
       </c>
     </row>
     <row r="84">
@@ -1865,16 +1865,16 @@
         <v>43405</v>
       </c>
       <c r="B84" t="n">
-        <v>0.8179852778074733</v>
+        <v>0.9902173286433724</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8181339159172965</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D84" t="n">
-        <v>0.3415997683456339</v>
+        <v>0.2897058726264494</v>
       </c>
       <c r="E84" t="n">
-        <v>0.98166126228281</v>
+        <v>0.08280254777070062</v>
       </c>
     </row>
     <row r="85">
@@ -1882,16 +1882,16 @@
         <v>43435</v>
       </c>
       <c r="B85" t="n">
-        <v>0.8101511910185669</v>
+        <v>0.9902887767790899</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8213242929372483</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D85" t="n">
-        <v>0.3600564217250121</v>
+        <v>0.3359142532177565</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9806439707852279</v>
+        <v>0.07643312101910826</v>
       </c>
     </row>
     <row r="86">
@@ -1899,16 +1899,16 @@
         <v>43466</v>
       </c>
       <c r="B86" t="n">
-        <v>0.7973139801202804</v>
+        <v>0.9909599639701229</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8259309936709726</v>
+        <v>0.5018359316961489</v>
       </c>
       <c r="D86" t="n">
-        <v>0.3647174717258458</v>
+        <v>0.3986751782451216</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9786664338987189</v>
+        <v>0.07006369426751588</v>
       </c>
     </row>
     <row r="87">
@@ -1916,16 +1916,16 @@
         <v>43497</v>
       </c>
       <c r="B87" t="n">
-        <v>0.8196116871088801</v>
+        <v>0.9903290487973246</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8138010898794865</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5038792710841919</v>
+        <v>0.263592958000454</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9767325971937034</v>
+        <v>0.0573248407643312</v>
       </c>
     </row>
     <row r="88">
@@ -1933,16 +1933,16 @@
         <v>43525</v>
       </c>
       <c r="B88" t="n">
-        <v>0.8018329244093183</v>
+        <v>0.9898865091990741</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8229487460305345</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5913563343395413</v>
+        <v>0.2465575763752478</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9793252182555847</v>
+        <v>0.05095541401273884</v>
       </c>
     </row>
     <row r="89">
@@ -1950,16 +1950,16 @@
         <v>43556</v>
       </c>
       <c r="B89" t="n">
-        <v>0.8045367245601444</v>
+        <v>0.9884010338527719</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8234836547045727</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D89" t="n">
-        <v>0.5446092017417534</v>
+        <v>0.1383168470235769</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9851240471169656</v>
+        <v>0.04458598726114646</v>
       </c>
     </row>
     <row r="90">
@@ -1967,16 +1967,16 @@
         <v>43586</v>
       </c>
       <c r="B90" t="n">
-        <v>0.8113212842232385</v>
+        <v>0.9892786865239264</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8170516540991243</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D90" t="n">
-        <v>0.4097728513891348</v>
+        <v>0.2125776771017406</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9785662060674547</v>
+        <v>0.04458598726114646</v>
       </c>
     </row>
     <row r="91">
@@ -1984,16 +1984,16 @@
         <v>43617</v>
       </c>
       <c r="B91" t="n">
-        <v>0.8186221843914154</v>
+        <v>0.9892674220515945</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8206962770596742</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D91" t="n">
-        <v>0.38649153885636</v>
+        <v>0.2446445601627224</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9823941640804321</v>
+        <v>0.05095541401273884</v>
       </c>
     </row>
     <row r="92">
@@ -2001,16 +2001,16 @@
         <v>43647</v>
       </c>
       <c r="B92" t="n">
-        <v>0.8189620174086807</v>
+        <v>0.9893256521440263</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8175942660774596</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D92" t="n">
-        <v>0.4792752537025191</v>
+        <v>0.3665478040181582</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9798030836781131</v>
+        <v>0.0573248407643312</v>
       </c>
     </row>
     <row r="93">
@@ -2018,16 +2018,16 @@
         <v>43678</v>
       </c>
       <c r="B93" t="n">
-        <v>0.8154828077055877</v>
+        <v>0.989728663463264</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8230507446757434</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D93" t="n">
-        <v>0.4312301472581591</v>
+        <v>0.2379149659023086</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9781783786194277</v>
+        <v>0.0573248407643312</v>
       </c>
     </row>
     <row r="94">
@@ -2035,16 +2035,16 @@
         <v>43709</v>
       </c>
       <c r="B94" t="n">
-        <v>0.8241791552854203</v>
+        <v>0.9896019234214721</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8221298771470258</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D94" t="n">
-        <v>0.4565441355295847</v>
+        <v>0.1183613502501367</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9765585280189282</v>
+        <v>0.0573248407643312</v>
       </c>
     </row>
     <row r="95">
@@ -2052,16 +2052,16 @@
         <v>43739</v>
       </c>
       <c r="B95" t="n">
-        <v>0.8126319742663987</v>
+        <v>0.9898349020933832</v>
       </c>
       <c r="C95" t="n">
-        <v>0.819289810779421</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5099701165816628</v>
+        <v>0.2407960120365747</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9797858088696763</v>
+        <v>0.0573248407643312</v>
       </c>
     </row>
     <row r="96">
@@ -2069,16 +2069,16 @@
         <v>43770</v>
       </c>
       <c r="B96" t="n">
-        <v>0.8124937237162303</v>
+        <v>0.9903955444038097</v>
       </c>
       <c r="C96" t="n">
-        <v>0.8224031023543661</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D96" t="n">
-        <v>0.4682875810744797</v>
+        <v>0.3029075486067799</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9750503690185857</v>
+        <v>0.05095541401273884</v>
       </c>
     </row>
     <row r="97">
@@ -2086,16 +2086,16 @@
         <v>43800</v>
       </c>
       <c r="B97" t="n">
-        <v>0.8132794396938479</v>
+        <v>0.9896504714696689</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8183015343154202</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D97" t="n">
-        <v>0.4666626050633214</v>
+        <v>0.3512533700820157</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9831072632591373</v>
+        <v>0.0573248407643312</v>
       </c>
     </row>
     <row r="98">
@@ -2103,16 +2103,16 @@
         <v>43831</v>
       </c>
       <c r="B98" t="n">
-        <v>0.7973372499006984</v>
+        <v>0.9876219226471014</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8266883716369168</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>0.4562957516250217</v>
+        <v>0.3692704081290296</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9826493603113391</v>
+        <v>0.0573248407643312</v>
       </c>
     </row>
     <row r="99">
@@ -2120,16 +2120,16 @@
         <v>43862</v>
       </c>
       <c r="B99" t="n">
-        <v>0.8137453876417202</v>
+        <v>0.987894814834221</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8244621293926442</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D99" t="n">
-        <v>0.439059555797408</v>
+        <v>0.2743687389109203</v>
       </c>
       <c r="E99" t="n">
-        <v>0.98124669381788</v>
+        <v>0.06369426751592355</v>
       </c>
     </row>
     <row r="100">
@@ -2137,16 +2137,16 @@
         <v>43891</v>
       </c>
       <c r="B100" t="n">
-        <v>0.6969692592429803</v>
+        <v>0.9891309993082474</v>
       </c>
       <c r="C100" t="n">
-        <v>0.762894256021043</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2262743642876197</v>
+        <v>0.2500114020094546</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9717266243966615</v>
+        <v>0.0573248407643312</v>
       </c>
     </row>
     <row r="101">
@@ -2154,16 +2154,16 @@
         <v>43922</v>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>0.979038997137365</v>
       </c>
       <c r="C101" t="n">
-        <v>0.01182346175643989</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>0.956664595749088</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -2171,16 +2171,16 @@
         <v>43952</v>
       </c>
       <c r="B102" t="n">
-        <v>0.9569070071883189</v>
+        <v>0.9763054736853034</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9241151740788696</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D102" t="n">
-        <v>0.3522132825430839</v>
+        <v>0.2286372160374769</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9795497106727131</v>
+        <v>0.8216560509554141</v>
       </c>
     </row>
     <row r="103">
@@ -2188,16 +2188,16 @@
         <v>43983</v>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0.9749696207043164</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6138188260274466</v>
+        <v>0.1795333559764394</v>
       </c>
       <c r="E103" t="n">
-        <v>0.9824998107526026</v>
+        <v>0.6878980891719746</v>
       </c>
     </row>
     <row r="104">
@@ -2205,16 +2205,16 @@
         <v>44013</v>
       </c>
       <c r="B104" t="n">
-        <v>0.8619915693855537</v>
+        <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>0.8719716723206929</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D104" t="n">
-        <v>0.6223428498919439</v>
+        <v>0.2301597061241413</v>
       </c>
       <c r="E104" t="n">
-        <v>0.9876516371695102</v>
+        <v>0.6050955414012738</v>
       </c>
     </row>
     <row r="105">
@@ -2222,16 +2222,16 @@
         <v>44044</v>
       </c>
       <c r="B105" t="n">
-        <v>0.9301592416903756</v>
+        <v>0.9995656421391245</v>
       </c>
       <c r="C105" t="n">
-        <v>0.8827494139037064</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D105" t="n">
-        <v>0.568632768710604</v>
+        <v>0.1769148925940659</v>
       </c>
       <c r="E105" t="n">
-        <v>0.9869906892720072</v>
+        <v>0.4777070063694267</v>
       </c>
     </row>
     <row r="106">
@@ -2239,16 +2239,16 @@
         <v>44075</v>
       </c>
       <c r="B106" t="n">
-        <v>0.8220104815944788</v>
+        <v>0.9996517743052935</v>
       </c>
       <c r="C106" t="n">
-        <v>0.8519897923760563</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D106" t="n">
-        <v>0.4905468607131919</v>
+        <v>0.1784593028722322</v>
       </c>
       <c r="E106" t="n">
-        <v>0.9811618247421615</v>
+        <v>0.4394904458598726</v>
       </c>
     </row>
     <row r="107">
@@ -2256,16 +2256,16 @@
         <v>44105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.8854473545587337</v>
+        <v>0.9912380191797094</v>
       </c>
       <c r="C107" t="n">
-        <v>0.8424105555477105</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D107" t="n">
-        <v>0.4091997879257664</v>
+        <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>0.9753990616390603</v>
+        <v>0.267515923566879</v>
       </c>
     </row>
     <row r="108">
@@ -2273,16 +2273,16 @@
         <v>44136</v>
       </c>
       <c r="B108" t="n">
-        <v>0.809529527014256</v>
+        <v>0.9912769652872938</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8247803516057473</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D108" t="n">
-        <v>0.4466437111373774</v>
+        <v>0.2100814573538025</v>
       </c>
       <c r="E108" t="n">
-        <v>0.9751453397140232</v>
+        <v>0.2611464968152866</v>
       </c>
     </row>
     <row r="109">
@@ -2290,16 +2290,16 @@
         <v>44166</v>
       </c>
       <c r="B109" t="n">
-        <v>0.8080962408847309</v>
+        <v>0.9897236663692102</v>
       </c>
       <c r="C109" t="n">
-        <v>0.804278529958791</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5321018246348093</v>
+        <v>0.3349482426584098</v>
       </c>
       <c r="E109" t="n">
-        <v>0.9875337282372185</v>
+        <v>0.2547770700636943</v>
       </c>
     </row>
     <row r="110">
@@ -2307,16 +2307,16 @@
         <v>44197</v>
       </c>
       <c r="B110" t="n">
-        <v>0.8037985530107958</v>
+        <v>0.9866794976602212</v>
       </c>
       <c r="C110" t="n">
-        <v>0.8336290661528916</v>
+        <v>0.1675107813118671</v>
       </c>
       <c r="D110" t="n">
-        <v>0.4943928131909315</v>
+        <v>0.3310589947919529</v>
       </c>
       <c r="E110" t="n">
-        <v>0.9869867133354615</v>
+        <v>0.2292993630573248</v>
       </c>
     </row>
     <row r="111">
@@ -2324,16 +2324,16 @@
         <v>44228</v>
       </c>
       <c r="B111" t="n">
-        <v>0.8186046173234472</v>
+        <v>0.9868631474703188</v>
       </c>
       <c r="C111" t="n">
-        <v>0.8366655330876169</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5855552089591999</v>
+        <v>0.2521772060770804</v>
       </c>
       <c r="E111" t="n">
-        <v>0.9809566549164035</v>
+        <v>0.2165605095541401</v>
       </c>
     </row>
     <row r="112">
@@ -2341,16 +2341,16 @@
         <v>44256</v>
       </c>
       <c r="B112" t="n">
-        <v>0.8259506443671929</v>
+        <v>0.9859132678855475</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8445415267298729</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6801679785195373</v>
+        <v>0.1744641993645421</v>
       </c>
       <c r="E112" t="n">
-        <v>0.991288101526027</v>
+        <v>0.2101910828025478</v>
       </c>
     </row>
     <row r="113">
@@ -2358,16 +2358,16 @@
         <v>44287</v>
       </c>
       <c r="B113" t="n">
-        <v>0.8215175625321907</v>
+        <v>0.9920202645541764</v>
       </c>
       <c r="C113" t="n">
-        <v>0.8254862688070219</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D113" t="n">
-        <v>0.681290936005489</v>
+        <v>0.258906757383087</v>
       </c>
       <c r="E113" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.2165605095541401</v>
       </c>
     </row>
     <row r="114">
@@ -2375,16 +2375,16 @@
         <v>44317</v>
       </c>
       <c r="B114" t="n">
-        <v>0.8177091421539534</v>
+        <v>0.9920397788747833</v>
       </c>
       <c r="C114" t="n">
-        <v>0.832893679041615</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D114" t="n">
-        <v>0.7097890436050871</v>
+        <v>0.3051926844862827</v>
       </c>
       <c r="E114" t="n">
-        <v>0.9953177368131433</v>
+        <v>0.2101910828025478</v>
       </c>
     </row>
     <row r="115">
@@ -2392,16 +2392,16 @@
         <v>44348</v>
       </c>
       <c r="B115" t="n">
-        <v>0.8139240932155383</v>
+        <v>0.9917945751123401</v>
       </c>
       <c r="C115" t="n">
-        <v>0.8407928447358934</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7918698206865462</v>
+        <v>0.2943950085153569</v>
       </c>
       <c r="E115" t="n">
-        <v>0.9938378403237628</v>
+        <v>0.2229299363057325</v>
       </c>
     </row>
     <row r="116">
@@ -2409,16 +2409,16 @@
         <v>44378</v>
       </c>
       <c r="B116" t="n">
-        <v>0.8447262678280361</v>
+        <v>0.988609566690322</v>
       </c>
       <c r="C116" t="n">
-        <v>0.8435193384603674</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5933676549433829</v>
+        <v>0.1679739240395708</v>
       </c>
       <c r="E116" t="n">
-        <v>0.9902418238171297</v>
+        <v>0.2101910828025478</v>
       </c>
     </row>
     <row r="117">
@@ -2426,16 +2426,16 @@
         <v>44409</v>
       </c>
       <c r="B117" t="n">
-        <v>0.8216318148412766</v>
+        <v>0.9888331031662216</v>
       </c>
       <c r="C117" t="n">
-        <v>0.8394124451332354</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5369842896455852</v>
+        <v>0.1763621103664524</v>
       </c>
       <c r="E117" t="n">
-        <v>0.9875954422895242</v>
+        <v>0.197452229299363</v>
       </c>
     </row>
     <row r="118">
@@ -2443,16 +2443,16 @@
         <v>44440</v>
       </c>
       <c r="B118" t="n">
-        <v>0.829324685465715</v>
+        <v>0.9891298126469464</v>
       </c>
       <c r="C118" t="n">
-        <v>0.8353603053475847</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5733056891296506</v>
+        <v>0.1447075149980321</v>
       </c>
       <c r="E118" t="n">
-        <v>0.9826403914483204</v>
+        <v>0.1719745222929936</v>
       </c>
     </row>
     <row r="119">
@@ -2460,16 +2460,16 @@
         <v>44470</v>
       </c>
       <c r="B119" t="n">
-        <v>0.8248883981973458</v>
+        <v>0.9919885128136972</v>
       </c>
       <c r="C119" t="n">
-        <v>0.8435751480102291</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D119" t="n">
-        <v>0.7869501147721993</v>
+        <v>0.2125057623706846</v>
       </c>
       <c r="E119" t="n">
-        <v>0.990822126533077</v>
+        <v>0.1464968152866242</v>
       </c>
     </row>
     <row r="120">
@@ -2477,16 +2477,16 @@
         <v>44501</v>
       </c>
       <c r="B120" t="n">
-        <v>0.8454799427581161</v>
+        <v>0.9917699423509536</v>
       </c>
       <c r="C120" t="n">
-        <v>0.8372741196385735</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D120" t="n">
-        <v>0.7086646182002438</v>
+        <v>0.2208189802497978</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9952808646827681</v>
+        <v>0.1273885350318471</v>
       </c>
     </row>
     <row r="121">
@@ -2494,16 +2494,16 @@
         <v>44531</v>
       </c>
       <c r="B121" t="n">
-        <v>0.8253004314759759</v>
+        <v>0.9919595349046951</v>
       </c>
       <c r="C121" t="n">
-        <v>0.8355296793252621</v>
+        <v>0.2821548350942842</v>
       </c>
       <c r="D121" t="n">
-        <v>0.6505070675988471</v>
+        <v>0.2811868593365801</v>
       </c>
       <c r="E121" t="n">
-        <v>0.9964095594698834</v>
+        <v>0.1146496815286624</v>
       </c>
     </row>
     <row r="122">
@@ -2511,16 +2511,16 @@
         <v>44562</v>
       </c>
       <c r="B122" t="n">
-        <v>0.8417655800512969</v>
+        <v>0.9862252334770202</v>
       </c>
       <c r="C122" t="n">
-        <v>0.8279498252863896</v>
+        <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6833060359507753</v>
+        <v>0.3703499298721652</v>
       </c>
       <c r="E122" t="n">
-        <v>0.9934873959452977</v>
+        <v>0.09554140127388533</v>
       </c>
     </row>
     <row r="123">
@@ -2528,16 +2528,16 @@
         <v>44593</v>
       </c>
       <c r="B123" t="n">
-        <v>0.8225231991975527</v>
+        <v>0.9859855107924163</v>
       </c>
       <c r="C123" t="n">
-        <v>0.8476052779413291</v>
+        <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>0.7548506731960245</v>
+        <v>0.2552117021942359</v>
       </c>
       <c r="E123" t="n">
-        <v>0.9891751212416464</v>
+        <v>0.07643312101910826</v>
       </c>
     </row>
     <row r="124">
@@ -2545,16 +2545,16 @@
         <v>44621</v>
       </c>
       <c r="B124" t="n">
-        <v>0.8314178054745589</v>
+        <v>0.9846749461708361</v>
       </c>
       <c r="C124" t="n">
-        <v>0.8296529253655485</v>
+        <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>0.9618970566512602</v>
+        <v>0.2320474278548725</v>
       </c>
       <c r="E124" t="n">
-        <v>0.9891880507522977</v>
+        <v>0.04458598726114646</v>
       </c>
     </row>
     <row r="125">
@@ -2562,16 +2562,16 @@
         <v>44652</v>
       </c>
       <c r="B125" t="n">
-        <v>0.7954831318683658</v>
+        <v>0.9925965738877303</v>
       </c>
       <c r="C125" t="n">
-        <v>0.8238175672650873</v>
+        <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>0.5362716851339961</v>
+        <v>0.1174807155836945</v>
       </c>
       <c r="E125" t="n">
-        <v>0.9868666973528365</v>
+        <v>0.03184713375796178</v>
       </c>
     </row>
     <row r="126">
@@ -2579,16 +2579,16 @@
         <v>44682</v>
       </c>
       <c r="B126" t="n">
-        <v>0.8174440166948352</v>
+        <v>0.9910471963506157</v>
       </c>
       <c r="C126" t="n">
-        <v>0.8277797188483189</v>
+        <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>0.8373213481418396</v>
+        <v>0.2107810470895996</v>
       </c>
       <c r="E126" t="n">
-        <v>0.9894910767429179</v>
+        <v>0.01273885350318468</v>
       </c>
     </row>
     <row r="127">
@@ -2596,16 +2596,16 @@
         <v>44713</v>
       </c>
       <c r="B127" t="n">
-        <v>0.7989289927695611</v>
+        <v>0.9895857486923816</v>
       </c>
       <c r="C127" t="n">
-        <v>0.8279645765271101</v>
+        <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>0.2784645478584191</v>
       </c>
       <c r="E127" t="n">
-        <v>0.9998990712482405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -2613,16 +2613,16 @@
         <v>44743</v>
       </c>
       <c r="B128" t="n">
-        <v>0.8140641755195509</v>
+        <v>0.9911707117127104</v>
       </c>
       <c r="C128" t="n">
-        <v>0.8350499354766038</v>
+        <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>0.3707296219929684</v>
+        <v>0.377573424144291</v>
       </c>
       <c r="E128" t="n">
-        <v>0.9771713840447283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -2630,16 +2630,16 @@
         <v>44774</v>
       </c>
       <c r="B129" t="n">
-        <v>0.8208919451701608</v>
+        <v>0.9898277993828407</v>
       </c>
       <c r="C129" t="n">
-        <v>0.8272376443346845</v>
+        <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>0.4356150255383813</v>
+        <v>0.2548403561992914</v>
       </c>
       <c r="E129" t="n">
-        <v>0.9966912583357779</v>
+        <v>0.006369426751592328</v>
       </c>
     </row>
     <row r="130">
@@ -2647,16 +2647,16 @@
         <v>44805</v>
       </c>
       <c r="B130" t="n">
-        <v>0.8120903226948355</v>
+        <v>0.9895372870915135</v>
       </c>
       <c r="C130" t="n">
-        <v>0.827137159737487</v>
+        <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>0.5617259035703712</v>
+        <v>0.1241733444877055</v>
       </c>
       <c r="E130" t="n">
-        <v>0.9931564108696392</v>
+        <v>0.02547770700636942</v>
       </c>
     </row>
     <row r="131">
@@ -2664,16 +2664,16 @@
         <v>44835</v>
       </c>
       <c r="B131" t="n">
-        <v>0.7984613780182788</v>
+        <v>0.9881216940344577</v>
       </c>
       <c r="C131" t="n">
-        <v>0.8261809070724782</v>
+        <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5863861258720136</v>
+        <v>0.2517029261671794</v>
       </c>
       <c r="E131" t="n">
-        <v>0.986597945689223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -2681,16 +2681,16 @@
         <v>44866</v>
       </c>
       <c r="B132" t="n">
-        <v>0.8047628919116875</v>
+        <v>0.9891534929008771</v>
       </c>
       <c r="C132" t="n">
-        <v>0.8249456853534888</v>
+        <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>0.4252858022654106</v>
+        <v>0.2867099164328524</v>
       </c>
       <c r="E132" t="n">
-        <v>0.982967929989221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -2698,16 +2698,16 @@
         <v>44896</v>
       </c>
       <c r="B133" t="n">
-        <v>0.8305827208491328</v>
+        <v>0.9893180636601547</v>
       </c>
       <c r="C133" t="n">
-        <v>0.8231128340033643</v>
+        <v>0</v>
       </c>
       <c r="D133" t="n">
         <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>0.9894576781362352</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/covid19_drdfm/data/example-output/RI/df.xlsx
+++ b/covid19_drdfm/data/example-output/RI/df.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:O133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,19 +452,69 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Prod</t>
+          <t>RPFI</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>FixAss</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>UI</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PartR</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>UR</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Cons3</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Cons5</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CPIU</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>PCE</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Mask2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>School</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Hosp1</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Deaths1</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -480,7 +530,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9433962264150946</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.5095541401273884</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -491,13 +571,43 @@
         <v>0.989279417100794</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.7152230371058973</v>
       </c>
       <c r="D3" t="n">
+        <v>0.3291762038116625</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.2833730589866468</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
+        <v>0.9245283018867934</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.5031847133757961</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9954066574241335</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9962746415584368</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.4804248097350872</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.9679389035394174</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +618,43 @@
         <v>0.9893951793941699</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.7135281064924899</v>
       </c>
       <c r="D4" t="n">
+        <v>0.3466018048580591</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.2332252896864677</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
+        <v>0.9056603773584904</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.4968152866242038</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.995515421943168</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9963989301637957</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4783596646895119</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.966573298315848</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -525,13 +665,43 @@
         <v>0.9891651840536905</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.6646735185401362</v>
       </c>
       <c r="D5" t="n">
+        <v>0.4145343631696232</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.1875731399216886</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
+        <v>0.9056603773584904</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.4968152866242038</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9957144635884444</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9966258143176469</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.4580164258916395</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.9640820130383683</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -542,13 +712,43 @@
         <v>0.9900616597160616</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.6639540095495663</v>
       </c>
       <c r="D6" t="n">
+        <v>0.5479036967562623</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.2201911423406391</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
+        <v>0.9245283018867934</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.4904458598726115</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.9965323803838994</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.9975560332481355</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.2823120937051792</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.9538741718760513</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -559,13 +759,43 @@
         <v>0.9898307739650215</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.6632429714081735</v>
       </c>
       <c r="D7" t="n">
+        <v>0.5134006809660661</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.2494224319446036</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
+        <v>0.9433962264150946</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.4904458598726115</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9963228748198274</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.9973186076161442</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.3408982227867237</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.956476820529933</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -576,13 +806,43 @@
         <v>0.9890369370049155</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.5423977238256898</v>
       </c>
       <c r="D8" t="n">
+        <v>0.4241438778427578</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.3171964092330109</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
+        <v>0.962264150943394</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.4840764331210192</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.9960321364601695</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.9969888609543198</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.3934463727922193</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.9600922983102562</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -593,13 +853,43 @@
         <v>0.987932639293143</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.5423612492859822</v>
       </c>
       <c r="D9" t="n">
+        <v>0.2592690121165756</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.2122051442702267</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
+        <v>0.9811320754716988</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.4713375796178343</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.9950252711381563</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.9958452514206634</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.6527359268372354</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.9726370191705382</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -610,13 +900,43 @@
         <v>0.9880503743006548</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.5423246970224083</v>
       </c>
       <c r="D10" t="n">
+        <v>0.2763740946494478</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.2012283667139813</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.464968152866242</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.9951321048780696</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.9959673312444171</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.6040928049754837</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.9712958398905062</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -627,13 +947,43 @@
         <v>0.9874727869293818</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.6148349540971342</v>
       </c>
       <c r="D11" t="n">
+        <v>0.2058547620124896</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.260377528632993</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.4522292993630574</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.9951544673447301</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.9959934092486241</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.506728251696605</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.9710078867636006</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -644,13 +994,43 @@
         <v>0.9888156308782419</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.6141018897247554</v>
       </c>
       <c r="D12" t="n">
+        <v>0.4050626945207086</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.2786068751080803</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
         <v>0.4458598726114649</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.9963776671333816</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.9973842085349639</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.3006557725101743</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.9557458204525275</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -661,13 +1041,43 @@
         <v>0.9886248444356888</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.6133745922174715</v>
       </c>
       <c r="D13" t="n">
+        <v>0.3758992874074142</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.3201753156342715</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.4394904458598726</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.996203199837648</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.9971865893892315</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.37413804795302</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.9579119267895568</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -678,13 +1088,43 @@
         <v>0.9908448464885018</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2887883588189815</v>
+        <v>0.7126419123541562</v>
       </c>
       <c r="D14" t="n">
+        <v>0.6655103016200663</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.3415778924291968</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
+        <v>0.962264150943394</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.4394904458598726</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.9958826681613892</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.9970937621717375</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.4730736920152049</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.9666573187698657</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -695,13 +1135,43 @@
         <v>0.9901872480834617</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.7120514286417819</v>
       </c>
       <c r="D15" t="n">
+        <v>0.5691469984809928</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.269171358179462</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
+        <v>0.9433962264150946</v>
+      </c>
+      <c r="G15" t="n">
         <v>0.4331210191082802</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.9952993724457467</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.9964309887702375</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.6349860070635606</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.9739022526346681</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -712,13 +1182,43 @@
         <v>0.992001230874022</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.7114653429844954</v>
       </c>
       <c r="D16" t="n">
+        <v>0.8408149574731101</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.2477387911844846</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
+        <v>0.9245283018867934</v>
+      </c>
+      <c r="G16" t="n">
         <v>0.4331210191082802</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.9969682922739976</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.9983278016499849</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.2471689513070562</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.953062076468007</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -729,13 +1229,43 @@
         <v>0.9885163413662067</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.5523471024192343</v>
       </c>
       <c r="D17" t="n">
+        <v>0.4760055856229617</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.165294201925095</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
+        <v>0.9056603773584904</v>
+      </c>
+      <c r="G17" t="n">
         <v>0.4331210191082802</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.9967866528802517</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.9981214976941312</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.2813645162752761</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.9552985360150279</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -746,13 +1276,43 @@
         <v>0.9879855844998517</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.5520580508481748</v>
       </c>
       <c r="D18" t="n">
+        <v>0.3957049095535047</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.1836428030899429</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
+        <v>0.8867924528301891</v>
+      </c>
+      <c r="G18" t="n">
         <v>0.4331210191082802</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.9963015363575179</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.9975702998047729</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.3993518297214528</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.9613194141187007</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -763,13 +1323,43 @@
         <v>0.9874303469492141</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.5517687284877468</v>
       </c>
       <c r="D19" t="n">
+        <v>0.3117625737019645</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.2526504526886448</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
+        <v>0.8867924528301891</v>
+      </c>
+      <c r="G19" t="n">
         <v>0.4394904458598726</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.995794123144575</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.996993762205981</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.4918638127890506</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.9676185898792923</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -780,13 +1370,43 @@
         <v>0.9897477712116365</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.6509084095386262</v>
       </c>
       <c r="D20" t="n">
+        <v>0.5020146587876428</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.3246767248570082</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
+        <v>0.8867924528301891</v>
+      </c>
+      <c r="G20" t="n">
         <v>0.4394904458598726</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.9960985026904947</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.997339804230143</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.4719810427311055</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.9637948380358665</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -797,13 +1417,43 @@
         <v>0.9896341040886788</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.6503785144861441</v>
       </c>
       <c r="D21" t="n">
+        <v>0.4849718280620939</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.2696036581274644</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
+        <v>0.8679245283018862</v>
+      </c>
+      <c r="G21" t="n">
         <v>0.4394904458598726</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.9959973825577803</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.9972250059441783</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.4921920362000497</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.9650278671739611</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -814,13 +1464,43 @@
         <v>0.9900510564849913</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.6498539992957326</v>
       </c>
       <c r="D22" t="n">
+        <v>0.5469554634226764</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.1693075624389989</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
+        <v>0.8490566037735849</v>
+      </c>
+      <c r="G22" t="n">
         <v>0.4331210191082802</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.9963798195686729</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.9976597558264456</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.3976005690238599</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.9602308122521267</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -831,13 +1511,43 @@
         <v>0.9892514206348768</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.6105397746921198</v>
       </c>
       <c r="D23" t="n">
+        <v>0.4164021143382239</v>
+      </c>
+      <c r="E23" t="n">
         <v>0.2447094195241962</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
+        <v>0.8301886792452837</v>
+      </c>
+      <c r="G23" t="n">
         <v>0.4267515923566879</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.9959410211865013</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.9971611939521711</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.4050553748719518</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.9656751792246812</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -848,13 +1558,43 @@
         <v>0.9892965491983117</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.610157325447877</v>
       </c>
       <c r="D24" t="n">
+        <v>0.4225858682469162</v>
+      </c>
+      <c r="E24" t="n">
         <v>0.2705102277513726</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
+        <v>0.8301886792452837</v>
+      </c>
+      <c r="G24" t="n">
         <v>0.4203821656050956</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.9959826704098358</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.9972086463434396</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.4666731454969064</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.9651282623410788</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -865,13 +1605,43 @@
         <v>0.9891353991102838</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.6097775347874196</v>
       </c>
       <c r="D25" t="n">
+        <v>0.3980515604049238</v>
+      </c>
+      <c r="E25" t="n">
         <v>0.3387506226048036</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
+        <v>0.8113207547169807</v>
+      </c>
+      <c r="G25" t="n">
         <v>0.4076433121019108</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.995836322953261</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.9970424450785504</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.504271433281398</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.9669260016326096</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -882,13 +1652,43 @@
         <v>0.9886370682247536</v>
       </c>
       <c r="C26" t="n">
-        <v>0.07480543737588921</v>
+        <v>0.6387599840907089</v>
       </c>
       <c r="D26" t="n">
+        <v>0.5234275837826941</v>
+      </c>
+      <c r="E26" t="n">
         <v>0.3551122184757071</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
+        <v>0.8113207547169807</v>
+      </c>
+      <c r="G26" t="n">
         <v>0.3949044585987261</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.9964692327234136</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.9972833308163991</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.493934346505972</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.9665405811298221</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -899,13 +1699,43 @@
         <v>0.9891204724241696</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.6385746598601318</v>
       </c>
       <c r="D27" t="n">
+        <v>0.5948390799857712</v>
+      </c>
+      <c r="E27" t="n">
         <v>0.2966350968048483</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
+        <v>0.8113207547169807</v>
+      </c>
+      <c r="G27" t="n">
         <v>0.3821656050955414</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.9969041145286578</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.9977812429304718</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.4316850960443767</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.9610381658735081</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -916,13 +1746,43 @@
         <v>0.9885977855942749</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.6383902619432156</v>
       </c>
       <c r="D28" t="n">
+        <v>0.5164090828359138</v>
+      </c>
+      <c r="E28" t="n">
         <v>0.2385260612687895</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
+        <v>0.8113207547169807</v>
+      </c>
+      <c r="G28" t="n">
         <v>0.3694267515923567</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.9964221446625748</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.9972371403786355</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.4759716818008413</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.9669709174555586</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -933,13 +1793,43 @@
         <v>0.9889208820998395</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.6509073958341086</v>
       </c>
       <c r="D29" t="n">
+        <v>0.2331967518264047</v>
+      </c>
+      <c r="E29" t="n">
         <v>0.1678871919586896</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
+        <v>0.8113207547169807</v>
+      </c>
+      <c r="G29" t="n">
         <v>0.356687898089172</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.9964369064839534</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.9972575181401337</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.467607911577312</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.9667094161832184</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -950,13 +1840,43 @@
         <v>0.9889993332156006</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.649177939018185</v>
       </c>
       <c r="D30" t="n">
+        <v>0.2436692075690341</v>
+      </c>
+      <c r="E30" t="n">
         <v>0.1822563467094221</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
+        <v>0.7924528301886795</v>
+      </c>
+      <c r="G30" t="n">
         <v>0.3375796178343949</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.9965038730642966</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.9973371852201279</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.4694354679379368</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.9657974574043684</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -967,13 +1887,43 @@
         <v>0.9892170106438377</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.6474703518966702</v>
       </c>
       <c r="D31" t="n">
+        <v>0.27487266398247</v>
+      </c>
+      <c r="E31" t="n">
         <v>0.2412672136564686</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
+        <v>0.7924528301886795</v>
+      </c>
+      <c r="G31" t="n">
         <v>0.3248407643312102</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.9966977698565104</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.9975610649503606</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.4420601940130754</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.9633029987871482</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -984,13 +1934,43 @@
         <v>0.9892795272469651</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.6246260149443927</v>
       </c>
       <c r="D32" t="n">
+        <v>0.3313182099306848</v>
+      </c>
+      <c r="E32" t="n">
         <v>0.3402531134464081</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
+        <v>0.7924528301886795</v>
+      </c>
+      <c r="G32" t="n">
         <v>0.3121019108280254</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.9965650259133928</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.9974136899945666</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.4328522352647602</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.9648830981661997</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1001,13 +1981,43 @@
         <v>0.9898778693337936</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.6238177099042401</v>
       </c>
       <c r="D33" t="n">
+        <v>0.4198795380487599</v>
+      </c>
+      <c r="E33" t="n">
         <v>0.2602759829596638</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
+        <v>0.7924528301886795</v>
+      </c>
+      <c r="G33" t="n">
         <v>0.2993630573248408</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.9971068449339143</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.9980328939202602</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.3723022077765162</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.9580503926351426</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1018,13 +2028,43 @@
         <v>0.9897356646612705</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.6230167181031216</v>
       </c>
       <c r="D34" t="n">
+        <v>0.3981469381511881</v>
+      </c>
+      <c r="E34" t="n">
         <v>0.1418463255080501</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
+        <v>0.7924528301886795</v>
+      </c>
+      <c r="G34" t="n">
         <v>0.2929936305732484</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.9969737983346646</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.9978850991920251</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.3832166305801797</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.9596354928650028</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1035,13 +2075,43 @@
         <v>0.991021442577693</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.6917433669013311</v>
       </c>
       <c r="D35" t="n">
+        <v>0.7698538975238056</v>
+      </c>
+      <c r="E35" t="n">
         <v>0.2486929598740965</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
+        <v>0.7924528301886795</v>
+      </c>
+      <c r="G35" t="n">
         <v>0.2802547770700636</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.9971373379286073</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.9980743268544767</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.3705152434098531</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.9575220698412108</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1052,13 +2122,43 @@
         <v>0.9911991300720104</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.6913409621523494</v>
       </c>
       <c r="D36" t="n">
+        <v>0.7968107539397524</v>
+      </c>
+      <c r="E36" t="n">
         <v>0.2888663352658708</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
+        <v>0.7924528301886795</v>
+      </c>
+      <c r="G36" t="n">
         <v>0.267515923566879</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.9973043170449373</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.9982674265011293</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.2910385964014466</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.9553663852445861</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1069,13 +2169,43 @@
         <v>0.9914705673346694</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.6909406130475868</v>
       </c>
       <c r="D37" t="n">
+        <v>0.8377248474488166</v>
+      </c>
+      <c r="E37" t="n">
         <v>0.3200977620577706</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
+        <v>0.7924528301886795</v>
+      </c>
+      <c r="G37" t="n">
         <v>0.2547770700636943</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.9975566623767348</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.9985575048301316</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.2342588880723614</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.9521466689884892</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1086,13 +2216,43 @@
         <v>0.9910237936877055</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3250863433883506</v>
+        <v>0.5524756189180184</v>
       </c>
       <c r="D38" t="n">
+        <v>0.6721777533910707</v>
+      </c>
+      <c r="E38" t="n">
         <v>0.3505899881674989</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
+        <v>0.7924528301886795</v>
+      </c>
+      <c r="G38" t="n">
         <v>0.2484076433121019</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.9985556067364921</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.9995550187797027</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.07870096975326518</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.9391826878446033</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1103,13 +2263,43 @@
         <v>0.9887086327807825</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.5524317966054664</v>
       </c>
       <c r="D39" t="n">
+        <v>0.3271012922553395</v>
+      </c>
+      <c r="E39" t="n">
         <v>0.2934121422822308</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
+        <v>0.7924528301886795</v>
+      </c>
+      <c r="G39" t="n">
         <v>0.2420382165605096</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.9964408255369817</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.9971555379866671</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.4991270461619542</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.965489893197179</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1120,13 +2310,43 @@
         <v>0.988608491451214</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.5523879345295629</v>
       </c>
       <c r="D40" t="n">
+        <v>0.3119748034505833</v>
+      </c>
+      <c r="E40" t="n">
         <v>0.2471043303705208</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
+        <v>0.7924528301886795</v>
+      </c>
+      <c r="G40" t="n">
         <v>0.2356687898089172</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.9963447737134717</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.9970502189398648</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5066174053952723</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.9666207178331913</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1137,13 +2357,43 @@
         <v>0.9898149901898947</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.6033227451198711</v>
       </c>
       <c r="D41" t="n">
+        <v>0.4263600203724739</v>
+      </c>
+      <c r="E41" t="n">
         <v>0.1390423604379107</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
+        <v>0.7924528301886795</v>
+      </c>
+      <c r="G41" t="n">
         <v>0.2292993630573248</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.9967260049219587</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.9974872724555806</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.4289422565245661</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.9617994349538268</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1154,13 +2404,43 @@
         <v>0.9892130075002742</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.6031861941349034</v>
       </c>
       <c r="D42" t="n">
+        <v>0.3371190108789316</v>
+      </c>
+      <c r="E42" t="n">
         <v>0.2015552584043375</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
+        <v>0.7735849056603765</v>
+      </c>
+      <c r="G42" t="n">
         <v>0.2229299363057325</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.9961760842128724</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.9968660778450718</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5349905266530876</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.9685919911023991</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1171,13 +2451,43 @@
         <v>0.9893749091897336</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.6030503397489443</v>
       </c>
       <c r="D43" t="n">
+        <v>0.3616631219451286</v>
+      </c>
+      <c r="E43" t="n">
         <v>0.2419496687472098</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
+        <v>0.7547169811320753</v>
+      </c>
+      <c r="G43" t="n">
         <v>0.2101910828025478</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.9963223563796846</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.9970360375834534</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.5101022712614719</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.9667021880574344</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1188,13 +2498,43 @@
         <v>0.9885502896207083</v>
       </c>
       <c r="C44" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.5722435723824948</v>
       </c>
       <c r="D44" t="n">
+        <v>0.3311337857884636</v>
+      </c>
+      <c r="E44" t="n">
         <v>0.3480315855954753</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
+        <v>0.7169811320754711</v>
+      </c>
+      <c r="G44" t="n">
         <v>0.2038216560509554</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.9966920207234082</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.997459835270883</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.4545412938591608</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.9620265158749708</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1205,13 +2545,43 @@
         <v>0.9888500293423742</v>
       </c>
       <c r="C45" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.5720359682894749</v>
       </c>
       <c r="D45" t="n">
+        <v>0.3753478148503027</v>
+      </c>
+      <c r="E45" t="n">
         <v>0.2565623123530681</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
+        <v>0.6981132075471699</v>
+      </c>
+      <c r="G45" t="n">
         <v>0.197452229299363</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.9969600160112821</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.99776805446227</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.3796449961608567</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.9586193262337169</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1222,13 +2592,43 @@
         <v>0.9893997246273821</v>
       </c>
       <c r="C46" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.5718287950012413</v>
       </c>
       <c r="D46" t="n">
+        <v>0.4567952448635833</v>
+      </c>
+      <c r="E46" t="n">
         <v>0.1387205034065236</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
+        <v>0.6792452830188669</v>
+      </c>
+      <c r="G46" t="n">
         <v>0.1910828025477707</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.997455854713612</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.9983351699408681</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.2738033829246919</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.9523708961543608</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1239,13 +2639,43 @@
         <v>0.9901645605559998</v>
       </c>
       <c r="C47" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.5964499660071989</v>
       </c>
       <c r="D47" t="n">
+        <v>0.6602847139347351</v>
+      </c>
+      <c r="E47" t="n">
         <v>0.2483526998326384</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
+        <v>0.6603773584905657</v>
+      </c>
+      <c r="G47" t="n">
         <v>0.1910828025477707</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.9970018641776438</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.9978228176195609</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.4264502145385787</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.9579696750175393</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1256,13 +2686,43 @@
         <v>0.9898814775708202</v>
       </c>
       <c r="C48" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.5962798760925765</v>
       </c>
       <c r="D48" t="n">
+        <v>0.618071687876526</v>
+      </c>
+      <c r="E48" t="n">
         <v>0.2904812615133404</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
+        <v>0.6603773584905657</v>
+      </c>
+      <c r="G48" t="n">
         <v>0.1847133757961783</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.9967429010761051</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.9975320708481796</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.4361074937639563</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.9611364394003525</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1273,13 +2733,43 @@
         <v>0.9904020692146717</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.5961106242208621</v>
       </c>
       <c r="D49" t="n">
+        <v>0.6955806567021215</v>
+      </c>
+      <c r="E49" t="n">
         <v>0.3159876365995198</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
+        <v>0.6603773584905657</v>
+      </c>
+      <c r="G49" t="n">
         <v>0.1847133757961783</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.9972163954010624</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.9980736890318234</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.3291286649421136</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.9551682272165031</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1290,13 +2780,43 @@
         <v>0.987283262178506</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5394128105832687</v>
+        <v>0.4971880651342538</v>
       </c>
       <c r="D50" t="n">
+        <v>0.2435760928727679</v>
+      </c>
+      <c r="E50" t="n">
         <v>0.3652994453595024</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
+        <v>0.6603773584905657</v>
+      </c>
+      <c r="G50" t="n">
         <v>0.1847133757961783</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.9959645687695479</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.9973965130980461</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.3582333302100829</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.9607309983917958</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1307,13 +2827,43 @@
         <v>0.9876963004821646</v>
       </c>
       <c r="C51" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.4966258326587566</v>
       </c>
       <c r="D51" t="n">
+        <v>0.3036009373428748</v>
+      </c>
+      <c r="E51" t="n">
         <v>0.2985259354615902</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
+        <v>0.6603773584905657</v>
+      </c>
+      <c r="G51" t="n">
         <v>0.1783439490445859</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.9963447970657402</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.9978279930880967</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.317139331932879</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.9559797406527168</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1324,13 +2874,43 @@
         <v>0.9866095231463353</v>
       </c>
       <c r="C52" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.4960589101936378</v>
       </c>
       <c r="D52" t="n">
+        <v>0.1401909979435386</v>
+      </c>
+      <c r="E52" t="n">
         <v>0.2327180484637119</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
+        <v>0.6603773584905657</v>
+      </c>
+      <c r="G52" t="n">
         <v>0.1719745222929936</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.9953581676286387</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.9967061179312794</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.527342817213182</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.9682764402574415</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1341,13 +2921,43 @@
         <v>0.9893072205532398</v>
       </c>
       <c r="C53" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.6121573615221058</v>
       </c>
       <c r="D53" t="n">
+        <v>0.4513003915249212</v>
+      </c>
+      <c r="E53" t="n">
         <v>0.1690729358431397</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
+        <v>0.6603773584905657</v>
+      </c>
+      <c r="G53" t="n">
         <v>0.1719745222929936</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.9950254870308761</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.9963274225657749</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.5600276253743403</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.9724172516696103</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1358,13 +2968,43 @@
         <v>0.9899699151418904</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.6120886001222086</v>
       </c>
       <c r="D54" t="n">
+        <v>0.5504637136362355</v>
+      </c>
+      <c r="E54" t="n">
         <v>0.206085623395737</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
+        <v>0.6603773584905657</v>
+      </c>
+      <c r="G54" t="n">
         <v>0.1719745222929936</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.995635868801147</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.9970204691345229</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.4911291353516724</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.9647954030113071</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1375,13 +3015,43 @@
         <v>0.9898071032495046</v>
       </c>
       <c r="C55" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.6120199950814514</v>
       </c>
       <c r="D55" t="n">
+        <v>0.5266470675650406</v>
+      </c>
+      <c r="E55" t="n">
         <v>0.247663348027219</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
+        <v>0.6603773584905657</v>
+      </c>
+      <c r="G55" t="n">
         <v>0.1656050955414012</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.9954938424654772</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.9968584482713655</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.5104932049111612</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.9665581937920824</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1392,13 +3062,43 @@
         <v>0.9906307102271406</v>
       </c>
       <c r="C56" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.6533587579276627</v>
       </c>
       <c r="D56" t="n">
+        <v>0.6687752629738104</v>
+      </c>
+      <c r="E56" t="n">
         <v>0.3439135448094887</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
+        <v>0.6603773584905657</v>
+      </c>
+      <c r="G56" t="n">
         <v>0.1656050955414012</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.9959940904098503</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.9974263402357556</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.3560972505717873</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.9603096985690595</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1409,13 +3109,43 @@
         <v>0.990220732514428</v>
       </c>
       <c r="C57" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.653149715929757</v>
       </c>
       <c r="D57" t="n">
+        <v>0.6083217241036891</v>
+      </c>
+      <c r="E57" t="n">
         <v>0.2527463221600108</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
+        <v>0.6603773584905657</v>
+      </c>
+      <c r="G57" t="n">
         <v>0.1592356687898089</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.9956291939929022</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.9970110459417934</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.4669182200412889</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.9648524551104239</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1426,13 +3156,43 @@
         <v>0.9901230636554899</v>
       </c>
       <c r="C58" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.6529414824742303</v>
       </c>
       <c r="D58" t="n">
+        <v>0.594382426536308</v>
+      </c>
+      <c r="E58" t="n">
         <v>0.1468776520558945</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
+        <v>0.6603773584905657</v>
+      </c>
+      <c r="G58" t="n">
         <v>0.1528662420382165</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.9955488302218922</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.9969191105605504</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.5033182562553414</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.9658462222735239</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1443,13 +3203,43 @@
         <v>0.9875553693035048</v>
       </c>
       <c r="C59" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.5216944250972607</v>
       </c>
       <c r="D59" t="n">
+        <v>0.1848474784080854</v>
+      </c>
+      <c r="E59" t="n">
         <v>0.2442654291864766</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
+        <v>0.6603773584905657</v>
+      </c>
+      <c r="G59" t="n">
         <v>0.1464968152866242</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.9953886477935255</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.9967364686601385</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.4901319569909405</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.9678357228058145</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1460,13 +3250,43 @@
         <v>0.9882282688158635</v>
       </c>
       <c r="C60" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.5211970566489404</v>
       </c>
       <c r="D60" t="n">
+        <v>0.2833804226613689</v>
+      </c>
+      <c r="E60" t="n">
         <v>0.2877340869112092</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
+        <v>0.6603773584905657</v>
+      </c>
+      <c r="G60" t="n">
         <v>0.1401273885350319</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.996001717738436</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.9974325890343944</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.4353786391004341</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.9601796615295174</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1477,13 +3297,43 @@
         <v>0.9876968687432789</v>
       </c>
       <c r="C61" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.520697007039467</v>
       </c>
       <c r="D61" t="n">
+        <v>0.2024875428720421</v>
+      </c>
+      <c r="E61" t="n">
         <v>0.3264070825377899</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
+        <v>0.6603773584905657</v>
+      </c>
+      <c r="G61" t="n">
         <v>0.1337579617834395</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.9955172243835528</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.9968813915384999</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.4986856164755484</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.9662146507041421</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1494,13 +3344,43 @@
         <v>0.9861791025746552</v>
       </c>
       <c r="C62" t="n">
-        <v>0.07453361242577139</v>
+        <v>0.5188369803559385</v>
       </c>
       <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
         <v>0.3760498048141253</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
+        <v>0.6226415094339615</v>
+      </c>
+      <c r="G62" t="n">
         <v>0.1210191082802548</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.9954214286501375</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.9963584416847019</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.5700337409100718</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.9741675116419231</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1511,13 +3391,43 @@
         <v>0.9869792588393843</v>
       </c>
       <c r="C63" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.5177129292879031</v>
       </c>
       <c r="D63" t="n">
+        <v>0.1167768634687966</v>
+      </c>
+      <c r="E63" t="n">
         <v>0.2823992810986402</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
+        <v>0.6415094339622645</v>
+      </c>
+      <c r="G63" t="n">
         <v>0.1146496815286624</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.9961515606033138</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.9971894840942838</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.454856946818932</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.9650207628940169</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1528,13 +3438,43 @@
         <v>0.9877442103995049</v>
       </c>
       <c r="C64" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.5165821033958754</v>
       </c>
       <c r="D64" t="n">
+        <v>0.2282762141774136</v>
+      </c>
+      <c r="E64" t="n">
         <v>0.2432100172325817</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
+        <v>0.6415094339622645</v>
+      </c>
+      <c r="G64" t="n">
         <v>0.1146496815286624</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.9968496556488133</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.9979841068694675</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.3578150554331625</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.9562735189784204</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1545,13 +3485,43 @@
         <v>0.9890336116740964</v>
       </c>
       <c r="C65" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.6170154464730526</v>
       </c>
       <c r="D65" t="n">
+        <v>0.4472838623607566</v>
+      </c>
+      <c r="E65" t="n">
         <v>0.1552451246322325</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
+        <v>0.6415094339622645</v>
+      </c>
+      <c r="G65" t="n">
         <v>0.1082802547770701</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.9959232226330237</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.9969325329866052</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.4379823293781138</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.967792310613265</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1562,13 +3532,43 @@
         <v>0.9899458606652853</v>
       </c>
       <c r="C66" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.6168440056580773</v>
       </c>
       <c r="D66" t="n">
+        <v>0.5829509350111226</v>
+      </c>
+      <c r="E66" t="n">
         <v>0.1977063869214365</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
+        <v>0.6415094339622645</v>
+      </c>
+      <c r="G66" t="n">
         <v>0.1082802547770701</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.9967541380202664</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.9978780772097432</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.3433451879440547</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.9573885046215503</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1579,13 +3579,43 @@
         <v>0.989486020683814</v>
       </c>
       <c r="C67" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.6166735715926589</v>
       </c>
       <c r="D67" t="n">
+        <v>0.5142239491982047</v>
+      </c>
+      <c r="E67" t="n">
         <v>0.2417658061514538</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
+        <v>0.6415094339622645</v>
+      </c>
+      <c r="G67" t="n">
         <v>0.1082802547770701</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.9963345698600694</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.9974025068566246</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.410549347079741</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.9625847141759466</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1596,13 +3626,43 @@
         <v>0.9908859385732091</v>
       </c>
       <c r="C68" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.6151858175427422</v>
       </c>
       <c r="D68" t="n">
+        <v>0.6278507759428016</v>
+      </c>
+      <c r="E68" t="n">
         <v>0.3604452615527675</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
+        <v>0.6415094339622645</v>
+      </c>
+      <c r="G68" t="n">
         <v>0.1146496815286624</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.9965668709876587</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.9976677388148051</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.3952852113377378</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.9596490326494385</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1613,13 +3673,43 @@
         <v>0.9900935781663853</v>
       </c>
       <c r="C69" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.6151108233734149</v>
       </c>
       <c r="D69" t="n">
+        <v>0.5109353065420139</v>
+      </c>
+      <c r="E69" t="n">
         <v>0.2376982964739291</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
+        <v>0.6415094339622645</v>
+      </c>
+      <c r="G69" t="n">
         <v>0.1146496815286624</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.9958531666694411</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.9968578806049608</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5609150233935125</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.9685152302080455</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1630,13 +3720,43 @@
         <v>0.9895735705918293</v>
       </c>
       <c r="C70" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.6150360031684463</v>
       </c>
       <c r="D70" t="n">
+        <v>0.4345725986561009</v>
+      </c>
+      <c r="E70" t="n">
         <v>0.1406224711734742</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
+        <v>0.6415094339622645</v>
+      </c>
+      <c r="G70" t="n">
         <v>0.1210191082802548</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.9953875637179803</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.9963299657043101</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.6199503001817661</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.9742869427779088</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1647,13 +3767,43 @@
         <v>0.9880327277213546</v>
       </c>
       <c r="C71" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.571204647983075</v>
       </c>
       <c r="D71" t="n">
+        <v>0.1370140225419426</v>
+      </c>
+      <c r="E71" t="n">
         <v>0.2495913672829438</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
+        <v>0.6415094339622645</v>
+      </c>
+      <c r="G71" t="n">
         <v>0.1210191082802548</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.9961483108685116</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.9971957164339113</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.4163665091399184</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.9647592257847142</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -1664,13 +3814,43 @@
         <v>0.9879642797234508</v>
       </c>
       <c r="C72" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.5696325882883772</v>
       </c>
       <c r="D72" t="n">
+        <v>0.1240514398787827</v>
+      </c>
+      <c r="E72" t="n">
         <v>0.2733214069400039</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
+        <v>0.6226415094339615</v>
+      </c>
+      <c r="G72" t="n">
         <v>0.1210191082802548</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.9960831257653585</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.9971228334762315</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.5054531287823583</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.9655357433002423</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -1681,13 +3861,43 @@
         <v>0.9880409967003123</v>
       </c>
       <c r="C73" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.5680632666509812</v>
       </c>
       <c r="D73" t="n">
+        <v>0.1326913844225774</v>
+      </c>
+      <c r="E73" t="n">
         <v>0.3498767273710287</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
+        <v>0.6226415094339615</v>
+      </c>
+      <c r="G73" t="n">
         <v>0.1146496815286624</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.9961502583252602</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.9972003122003349</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.4790655403947179</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.9646616633608113</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1698,13 +3908,43 @@
         <v>0.9895074038748476</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>0.5712040152001029</v>
       </c>
       <c r="D74" t="n">
+        <v>0.2215404821567845</v>
+      </c>
+      <c r="E74" t="n">
         <v>0.3736395350073488</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
+        <v>0.6226415094339615</v>
+      </c>
+      <c r="G74" t="n">
         <v>0.1146496815286624</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.9955601705876372</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.9967593711411074</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.5579617292651852</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.9735329438710333</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1715,13 +3955,43 @@
         <v>0.9899090158411252</v>
       </c>
       <c r="C75" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.5706115902412731</v>
       </c>
       <c r="D75" t="n">
+        <v>0.2811445549200416</v>
+      </c>
+      <c r="E75" t="n">
         <v>0.2799606017521265</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
+        <v>0.6415094339622645</v>
+      </c>
+      <c r="G75" t="n">
         <v>0.1019108280254777</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.9959323545963086</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.9971822872097297</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.5115782435314746</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.9688438384149842</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -1732,13 +4002,43 @@
         <v>0.9902803433637754</v>
       </c>
       <c r="C76" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.5700202773408766</v>
       </c>
       <c r="D76" t="n">
+        <v>0.3362221116538556</v>
+      </c>
+      <c r="E76" t="n">
         <v>0.2326195933137231</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
+        <v>0.6415094339622645</v>
+      </c>
+      <c r="G76" t="n">
         <v>0.09554140127388533</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.9962768568329788</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.997573744842932</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.4066752155894716</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.9645001110870208</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1749,13 +4049,43 @@
         <v>0.9888865795868288</v>
       </c>
       <c r="C77" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.6145196862122377</v>
       </c>
       <c r="D77" t="n">
+        <v>0.4081413024502764</v>
+      </c>
+      <c r="E77" t="n">
         <v>0.1658397480686151</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
+        <v>0.6603773584905657</v>
+      </c>
+      <c r="G77" t="n">
         <v>0.08917197452229297</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.9960901327653441</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.9973614959062115</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.4864555798421895</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.9667848214319522</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -1766,13 +4096,43 @@
         <v>0.9889067761585496</v>
       </c>
       <c r="C78" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.6140291696979615</v>
       </c>
       <c r="D78" t="n">
+        <v>0.4101609752363933</v>
+      </c>
+      <c r="E78" t="n">
         <v>0.1812658169787376</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
+        <v>0.6603773584905657</v>
+      </c>
+      <c r="G78" t="n">
         <v>0.08280254777070062</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.9961064648837744</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.9973800086843052</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.4990037387758953</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.9665362728472044</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -1783,13 +4143,43 @@
         <v>0.9891822433321221</v>
       </c>
       <c r="C79" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.6135423543783824</v>
       </c>
       <c r="D79" t="n">
+        <v>0.4502143368816358</v>
+      </c>
+      <c r="E79" t="n">
         <v>0.2543610131783404</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
+        <v>0.6603773584905657</v>
+      </c>
+      <c r="G79" t="n">
         <v>0.08280254777070062</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.9963554623103958</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.9976629318125455</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.443536424040789</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.9633848452105244</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1800,13 +4190,43 @@
         <v>0.9885157347404923</v>
       </c>
       <c r="C80" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.5101452990073142</v>
       </c>
       <c r="D80" t="n">
+        <v>0.3439420756306229</v>
+      </c>
+      <c r="E80" t="n">
         <v>0.3727556928496717</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
+        <v>0.6415094339622645</v>
+      </c>
+      <c r="G80" t="n">
         <v>0.07643312101910826</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.9964267804414916</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.9977439334690879</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.4183183667114636</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.9624506699879065</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1817,13 +4237,43 @@
         <v>0.9885670494743607</v>
       </c>
       <c r="C81" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.5098402978138837</v>
       </c>
       <c r="D81" t="n">
+        <v>0.3496830166172101</v>
+      </c>
+      <c r="E81" t="n">
         <v>0.2499034096558707</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
+        <v>0.6415094339622645</v>
+      </c>
+      <c r="G81" t="n">
         <v>0.08280254777070062</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.9964700213999809</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.9977930274985567</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.4596972479140294</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.9618671054426999</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -1834,13 +4284,43 @@
         <v>0.9880545547933516</v>
       </c>
       <c r="C82" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.5095333376258809</v>
       </c>
       <c r="D82" t="n">
+        <v>0.2714388969052175</v>
+      </c>
+      <c r="E82" t="n">
         <v>0.1327347403221621</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
+        <v>0.6226415094339615</v>
+      </c>
+      <c r="G82" t="n">
         <v>0.08280254777070062</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.9959994400603146</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.9972581951705763</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.4715287686595205</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.9676953519512914</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -1851,13 +4331,43 @@
         <v>0.9897456668138904</v>
       </c>
       <c r="C83" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.6095839823078697</v>
       </c>
       <c r="D83" t="n">
+        <v>0.633190009009154</v>
+      </c>
+      <c r="E83" t="n">
         <v>0.2385539385992221</v>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
+        <v>0.6037735849056602</v>
+      </c>
+      <c r="G83" t="n">
         <v>0.08280254777070062</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.9961518617518146</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.9974313674534852</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.4961603152117828</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.9657500705502127</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -1868,13 +4378,43 @@
         <v>0.9902173286433724</v>
       </c>
       <c r="C84" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.6095079972632631</v>
       </c>
       <c r="D84" t="n">
+        <v>0.7031927088703238</v>
+      </c>
+      <c r="E84" t="n">
         <v>0.2897058726264494</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
+        <v>0.5849056603773573</v>
+      </c>
+      <c r="G84" t="n">
         <v>0.08280254777070062</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.9965842076460267</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.9979226560246657</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.3415997683456339</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.9603119476597124</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -1885,13 +4425,43 @@
         <v>0.9902887767790899</v>
       </c>
       <c r="C85" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.6094322567314829</v>
       </c>
       <c r="D85" t="n">
+        <v>0.7135812126593224</v>
+      </c>
+      <c r="E85" t="n">
         <v>0.3359142532177565</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
+        <v>0.5849056603773573</v>
+      </c>
+      <c r="G85" t="n">
         <v>0.07643312101910826</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.9966517791064838</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.9979994015606893</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.3600564217250121</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.9594258489978714</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -1902,13 +4472,43 @@
         <v>0.9909599639701229</v>
       </c>
       <c r="C86" t="n">
-        <v>0.5018359316961489</v>
+        <v>0.6339867231370241</v>
       </c>
       <c r="D86" t="n">
+        <v>0.7625444755465707</v>
+      </c>
+      <c r="E86" t="n">
         <v>0.3986751782451216</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
+        <v>0.566037735849056</v>
+      </c>
+      <c r="G86" t="n">
         <v>0.07006369426751588</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.996225335416376</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.9978242137334862</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.3647174717258458</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.9580397579119233</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -1919,13 +4519,43 @@
         <v>0.9903290487973246</v>
       </c>
       <c r="C87" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.6337830254539387</v>
       </c>
       <c r="D87" t="n">
+        <v>0.6690150095719376</v>
+      </c>
+      <c r="E87" t="n">
         <v>0.263592958000454</v>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
+        <v>0.547169811320753</v>
+      </c>
+      <c r="G87" t="n">
         <v>0.0573248407643312</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.9956602137626945</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.9971807226036238</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.5038792710841919</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.9650809838276905</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -1936,13 +4566,43 @@
         <v>0.9898865091990741</v>
       </c>
       <c r="C88" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.6335805523312642</v>
       </c>
       <c r="D88" t="n">
+        <v>0.6035322934221924</v>
+      </c>
+      <c r="E88" t="n">
         <v>0.2465575763752478</v>
       </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
+        <v>0.547169811320753</v>
+      </c>
+      <c r="G88" t="n">
         <v>0.05095541401273884</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.9952666567438</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.9967322112734304</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.5913563343395413</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.9699815938231239</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -1953,13 +4613,43 @@
         <v>0.9884010338527719</v>
       </c>
       <c r="C89" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.6057988995358503</v>
       </c>
       <c r="D89" t="n">
+        <v>0.2570005073890286</v>
+      </c>
+      <c r="E89" t="n">
         <v>0.1383168470235769</v>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
+        <v>0.547169811320753</v>
+      </c>
+      <c r="G89" t="n">
         <v>0.04458598726114646</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.9951457392017494</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.9965935444938968</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.5446092017417534</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.9714802479258705</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -1970,13 +4660,43 @@
         <v>0.9892786865239264</v>
       </c>
       <c r="C90" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.6052488095411751</v>
       </c>
       <c r="D90" t="n">
+        <v>0.387050198027805</v>
+      </c>
+      <c r="E90" t="n">
         <v>0.2125776771017406</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
+        <v>0.566037735849056</v>
+      </c>
+      <c r="G90" t="n">
         <v>0.04458598726114646</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.9959460259130595</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.9975017747604661</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.4097728513891348</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.9614828871109893</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -1987,13 +4707,43 @@
         <v>0.9892674220515945</v>
       </c>
       <c r="C91" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.6047023784551625</v>
       </c>
       <c r="D91" t="n">
+        <v>0.3846614220329906</v>
+      </c>
+      <c r="E91" t="n">
         <v>0.2446445601627224</v>
       </c>
-      <c r="E91" t="n">
+      <c r="F91" t="n">
+        <v>0.5849056603773573</v>
+      </c>
+      <c r="G91" t="n">
         <v>0.05095541401273884</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.9959361673978424</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.9974893346061214</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.38649153885636</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.9615954132079207</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2004,13 +4754,43 @@
         <v>0.9893256521440263</v>
       </c>
       <c r="C92" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.5677362574971571</v>
       </c>
       <c r="D92" t="n">
+        <v>0.3216262843549029</v>
+      </c>
+      <c r="E92" t="n">
         <v>0.3665478040181582</v>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
+        <v>0.6037735849056602</v>
+      </c>
+      <c r="G92" t="n">
         <v>0.0573248407643312</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.9956910641131128</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.9972095614498868</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.4792752537025191</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.9646437228756978</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -2021,13 +4801,43 @@
         <v>0.989728663463264</v>
       </c>
       <c r="C93" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.567391135010141</v>
       </c>
       <c r="D93" t="n">
+        <v>0.3810763931451548</v>
+      </c>
+      <c r="E93" t="n">
         <v>0.2379149659023086</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
+        <v>0.6415094339622645</v>
+      </c>
+      <c r="G93" t="n">
         <v>0.0573248407643312</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.9960601733463085</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.997627808503767</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.4312301472581591</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.9600269790545484</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2038,13 +4848,43 @@
         <v>0.9896019234214721</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.5670464962371206</v>
       </c>
       <c r="D94" t="n">
+        <v>0.361598080833097</v>
+      </c>
+      <c r="E94" t="n">
         <v>0.1183613502501367</v>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
+        <v>0.6415094339622645</v>
+      </c>
+      <c r="G94" t="n">
         <v>0.0573248407643312</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.9959464643947138</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.9974973712234658</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.4565441355295847</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.9614356136961584</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2055,13 +4895,43 @@
         <v>0.9898349020933832</v>
       </c>
       <c r="C95" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.5418472705497605</v>
       </c>
       <c r="D95" t="n">
+        <v>0.457481403432025</v>
+      </c>
+      <c r="E95" t="n">
         <v>0.2407960120365747</v>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
+        <v>0.6603773584905657</v>
+      </c>
+      <c r="G95" t="n">
         <v>0.0573248407643312</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.9955161333398044</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.9970071208687488</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5099701165816628</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.9667957063588241</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2072,13 +4942,43 @@
         <v>0.9903955444038097</v>
       </c>
       <c r="C96" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.5418263648975735</v>
       </c>
       <c r="D96" t="n">
+        <v>0.5416471139017865</v>
+      </c>
+      <c r="E96" t="n">
         <v>0.3029075486067799</v>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
+        <v>0.6603773584905657</v>
+      </c>
+      <c r="G96" t="n">
         <v>0.05095541401273884</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.9960336689026793</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.9975940664946239</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.4682875810744797</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.9603266245918292</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2089,13 +4989,43 @@
         <v>0.9896504714696689</v>
       </c>
       <c r="C97" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.541805418413755</v>
       </c>
       <c r="D97" t="n">
+        <v>0.4312645703506164</v>
+      </c>
+      <c r="E97" t="n">
         <v>0.3512533700820157</v>
       </c>
-      <c r="E97" t="n">
+      <c r="F97" t="n">
+        <v>0.6415094339622645</v>
+      </c>
+      <c r="G97" t="n">
         <v>0.0573248407643312</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.995361131806678</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.9968285791529738</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.4666626050633214</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.9687096497014823</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2106,13 +5036,43 @@
         <v>0.9876219226471014</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>0.5511329817215669</v>
       </c>
       <c r="D98" t="n">
+        <v>0.5971462968258158</v>
+      </c>
+      <c r="E98" t="n">
         <v>0.3692704081290296</v>
       </c>
-      <c r="E98" t="n">
+      <c r="F98" t="n">
+        <v>0.6037735849056602</v>
+      </c>
+      <c r="G98" t="n">
         <v>0.0573248407643312</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.9959346700784358</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.9953497634762354</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.4562957516250217</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.9664542322535288</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2123,13 +5083,43 @@
         <v>0.987894814834221</v>
       </c>
       <c r="C99" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.5509325334737898</v>
       </c>
       <c r="D99" t="n">
+        <v>0.6369009741350937</v>
+      </c>
+      <c r="E99" t="n">
         <v>0.2743687389109203</v>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
+        <v>0.547169811320753</v>
+      </c>
+      <c r="G99" t="n">
         <v>0.06369426751592355</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.9961815070505031</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.9956315238011518</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.439059555797408</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.9633423732977117</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0.4128686327077748</v>
       </c>
     </row>
     <row r="100">
@@ -2140,13 +5130,43 @@
         <v>0.9891309993082474</v>
       </c>
       <c r="C100" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.5507318614633122</v>
       </c>
       <c r="D100" t="n">
+        <v>0.8202029905321822</v>
+      </c>
+      <c r="E100" t="n">
         <v>0.2500114020094546</v>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
+        <v>0.4716981132075464</v>
+      </c>
+      <c r="G100" t="n">
         <v>0.0573248407643312</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.9973062889970147</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.9969109871767283</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.2262743642876197</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.9492734477251853</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -2157,13 +5177,43 @@
         <v>0.979038997137365</v>
       </c>
       <c r="C101" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.02585436102928373</v>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>0.7548303002664689</v>
       </c>
       <c r="E101" t="n">
         <v>1</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.998344045565583</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.9980915254530132</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.9362916290410209</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -2174,13 +5224,43 @@
         <v>0.9763054736853034</v>
       </c>
       <c r="C102" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.01325494395948634</v>
       </c>
       <c r="D102" t="n">
+        <v>0.4040360720578164</v>
+      </c>
+      <c r="E102" t="n">
         <v>0.2286372160374769</v>
       </c>
-      <c r="E102" t="n">
+      <c r="F102" t="n">
+        <v>0.4905660377358494</v>
+      </c>
+      <c r="G102" t="n">
         <v>0.8216560509554141</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.996202086620794</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.9956585151432802</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.3522132825430839</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.9629923664167638</v>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -2191,13 +5271,43 @@
         <v>0.9749696207043164</v>
       </c>
       <c r="C103" t="n">
-        <v>0.2821548350942842</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
+        <v>0.2654216436661995</v>
+      </c>
+      <c r="E103" t="n">
         <v>0.1795333559764394</v>
       </c>
-      <c r="E103" t="n">
+      <c r="F103" t="n">
+        <v>0.4905660377358494</v>
+      </c>
+      <c r="G103" t="n">
         <v>0.6878980891719746</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.9953578723511296</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.9947002832211163</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.6138188260274466</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.9734976021779451</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -2208,13 +5318,43 @@
         <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>0.2821548350942842</v>
+        <v>1</v>
       </c>
       <c r="D104" t="n">
+        <v>0.5849530638632946</v>
+      </c>
+      <c r="E104" t="n">
         <v>0.2301597061241413</v>
       </c>
-      <c r="E104" t="n">
+      <c r="F104" t="n">
+        <v>0.566037735849056</v>
+      </c>
+      <c r="G104" t="n">
         <v>0.6050955414012738</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.9955624439883889</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.9949339013559154</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.6223428498919439</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.9709144307873941</v>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -2225,13 +5365,43 @@
         <v>0.9995656421391245</v>
       </c>
       <c r="C105" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.9926192759668835</v>
       </c>
       <c r="D105" t="n">
+        <v>0.5777672773460395</v>
+      </c>
+      <c r="E105" t="n">
         <v>0.1769148925940659</v>
       </c>
-      <c r="E105" t="n">
+      <c r="F105" t="n">
+        <v>0.4716981132075464</v>
+      </c>
+      <c r="G105" t="n">
         <v>0.4777070063694267</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.9955236721287831</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.9948909549636282</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.568632768710604</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.9713683439790582</v>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -2242,13 +5412,43 @@
         <v>0.9996517743052935</v>
       </c>
       <c r="C106" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.9855066266456498</v>
       </c>
       <c r="D106" t="n">
+        <v>0.6444894865691323</v>
+      </c>
+      <c r="E106" t="n">
         <v>0.1784593028722322</v>
       </c>
-      <c r="E106" t="n">
+      <c r="F106" t="n">
+        <v>0.547169811320753</v>
+      </c>
+      <c r="G106" t="n">
         <v>0.4394904458598726</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.9959368688502063</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.9953616173558294</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.4905468607131919</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.9661813748160424</v>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -2259,13 +5459,43 @@
         <v>0.9912380191797094</v>
       </c>
       <c r="C107" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.8035548740341961</v>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>0.5908517309349132</v>
       </c>
       <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.2830188679245271</v>
+      </c>
+      <c r="G107" t="n">
         <v>0.267515923566879</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.9964381702224722</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.9959323823432377</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.4091997879257664</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.9598946761274347</v>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -2276,13 +5506,43 @@
         <v>0.9912769652872938</v>
       </c>
       <c r="C108" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.8008150712747577</v>
       </c>
       <c r="D108" t="n">
+        <v>0.5985010546637587</v>
+      </c>
+      <c r="E108" t="n">
         <v>0.2100814573538025</v>
       </c>
-      <c r="E108" t="n">
+      <c r="F108" t="n">
+        <v>0.3584905660377355</v>
+      </c>
+      <c r="G108" t="n">
         <v>0.2611464968152866</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.996487002735081</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.9959889266258732</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.4466437111373774</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.9592553680439437</v>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0.4128686327077748</v>
       </c>
     </row>
     <row r="109">
@@ -2293,13 +5553,43 @@
         <v>0.9897236663692102</v>
       </c>
       <c r="C109" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.7981385275896398</v>
       </c>
       <c r="D109" t="n">
+        <v>0.3688271914284401</v>
+      </c>
+      <c r="E109" t="n">
         <v>0.3349482426584098</v>
       </c>
-      <c r="E109" t="n">
+      <c r="F109" t="n">
+        <v>0.3962264150943398</v>
+      </c>
+      <c r="G109" t="n">
         <v>0.2547770700636943</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.9950844828493796</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.9943960927398956</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.5321018246348093</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.9767310302830582</v>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O109" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -2310,13 +5600,43 @@
         <v>0.9866794976602212</v>
       </c>
       <c r="C110" t="n">
-        <v>0.1675107813118671</v>
+        <v>0.5625191529071091</v>
       </c>
       <c r="D110" t="n">
+        <v>0.3836118318222097</v>
+      </c>
+      <c r="E110" t="n">
         <v>0.3310589947919529</v>
       </c>
-      <c r="E110" t="n">
+      <c r="F110" t="n">
+        <v>0.3962264150943398</v>
+      </c>
+      <c r="G110" t="n">
         <v>0.2292993630573248</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.9999221539094429</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.9991317513456051</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.4943928131909315</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.9747526090468045</v>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O110" t="n">
+        <v>0.4423592493297587</v>
       </c>
     </row>
     <row r="111">
@@ -2327,13 +5647,43 @@
         <v>0.9868631474703188</v>
       </c>
       <c r="C111" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.5604113285460939</v>
       </c>
       <c r="D111" t="n">
+        <v>0.4008215377503375</v>
+      </c>
+      <c r="E111" t="n">
         <v>0.2521772060770804</v>
       </c>
-      <c r="E111" t="n">
+      <c r="F111" t="n">
+        <v>0.415094339622641</v>
+      </c>
+      <c r="G111" t="n">
         <v>0.2165605095541401</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.9992868843365346</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.5855552089591999</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.9726478689356843</v>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -2344,13 +5694,43 @@
         <v>0.9859132678855475</v>
       </c>
       <c r="C112" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.5583042218298804</v>
       </c>
       <c r="D112" t="n">
+        <v>0.2492174675379403</v>
+      </c>
+      <c r="E112" t="n">
         <v>0.1744641993645421</v>
       </c>
-      <c r="E112" t="n">
+      <c r="F112" t="n">
+        <v>0.4528301886792452</v>
+      </c>
+      <c r="G112" t="n">
         <v>0.2101910828025478</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.9990476716305072</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.9982687008295855</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.6801679785195373</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.9834387148438586</v>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O112" t="n">
+        <v>0.2412868632707775</v>
       </c>
     </row>
     <row r="113">
@@ -2361,13 +5741,43 @@
         <v>0.9920202645541764</v>
       </c>
       <c r="C113" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.740628323390359</v>
       </c>
       <c r="D113" t="n">
+        <v>0.9947948952349543</v>
+      </c>
+      <c r="E113" t="n">
         <v>0.258906757383087</v>
       </c>
-      <c r="E113" t="n">
+      <c r="F113" t="n">
+        <v>0.5094339622641506</v>
+      </c>
+      <c r="G113" t="n">
         <v>0.2165605095541401</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.999165545184339</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.99846424952104</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.681290936005489</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.9809057856832755</v>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O113" t="n">
+        <v>0.3806970509383378</v>
       </c>
     </row>
     <row r="114">
@@ -2378,13 +5788,43 @@
         <v>0.9920397788747833</v>
       </c>
       <c r="C114" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.7398650097072181</v>
       </c>
       <c r="D114" t="n">
+        <v>1</v>
+      </c>
+      <c r="E114" t="n">
         <v>0.3051926844862827</v>
       </c>
-      <c r="E114" t="n">
+      <c r="F114" t="n">
+        <v>0.5283018867924518</v>
+      </c>
+      <c r="G114" t="n">
         <v>0.2101910828025478</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.9991657327074173</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.9985237147791778</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.7097890436050871</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.979874732390936</v>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O114" t="n">
+        <v>0.4128686327077748</v>
       </c>
     </row>
     <row r="115">
@@ -2395,13 +5835,43 @@
         <v>0.9917945751123401</v>
       </c>
       <c r="C115" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.7391073030334622</v>
       </c>
       <c r="D115" t="n">
+        <v>0.9656233555628357</v>
+      </c>
+      <c r="E115" t="n">
         <v>0.2943950085153569</v>
       </c>
-      <c r="E115" t="n">
+      <c r="F115" t="n">
+        <v>0.566037735849056</v>
+      </c>
+      <c r="G115" t="n">
         <v>0.2229299363057325</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.9989254145241597</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.9983076436618699</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.7918698206865462</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.9818776518647443</v>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O115" t="n">
+        <v>0.4128686327077748</v>
       </c>
     </row>
     <row r="116">
@@ -2412,13 +5882,43 @@
         <v>0.988609566690322</v>
       </c>
       <c r="C116" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.4890622051418805</v>
       </c>
       <c r="D116" t="n">
+        <v>0.5568798892513147</v>
+      </c>
+      <c r="E116" t="n">
         <v>0.1679739240395708</v>
       </c>
-      <c r="E116" t="n">
+      <c r="F116" t="n">
+        <v>0.566037735849056</v>
+      </c>
+      <c r="G116" t="n">
         <v>0.2101910828025478</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.9991798272849471</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.9986516792457043</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.5933676549433829</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.9777341744656977</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0.4128686327077748</v>
       </c>
     </row>
     <row r="117">
@@ -2429,13 +5929,43 @@
         <v>0.9888331031662216</v>
       </c>
       <c r="C117" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.4889149836909576</v>
       </c>
       <c r="D117" t="n">
+        <v>0.5842786770992201</v>
+      </c>
+      <c r="E117" t="n">
         <v>0.1763621103664524</v>
       </c>
-      <c r="E117" t="n">
+      <c r="F117" t="n">
+        <v>0.547169811320753</v>
+      </c>
+      <c r="G117" t="n">
         <v>0.197452229299363</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.9993136385165323</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.9988566539454276</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.5369842896455852</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.9751247411652975</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O117" t="n">
+        <v>0.4450402144772118</v>
       </c>
     </row>
     <row r="118">
@@ -2446,13 +5976,43 @@
         <v>0.9891298126469464</v>
       </c>
       <c r="C118" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.4887670791679751</v>
       </c>
       <c r="D118" t="n">
+        <v>0.6227102425210881</v>
+      </c>
+      <c r="E118" t="n">
         <v>0.1447075149980321</v>
       </c>
-      <c r="E118" t="n">
+      <c r="F118" t="n">
+        <v>0.5094339622641506</v>
+      </c>
+      <c r="G118" t="n">
         <v>0.1719745222929936</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.9995163012189787</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.9991379621188393</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.5733056891296506</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.9716828912948247</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
+      <c r="O118" t="n">
+        <v>0.3806970509383378</v>
       </c>
     </row>
     <row r="119">
@@ -2463,13 +6023,43 @@
         <v>0.9919885128136972</v>
       </c>
       <c r="C119" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.5529890160070867</v>
       </c>
       <c r="D119" t="n">
+        <v>0.594064161598269</v>
+      </c>
+      <c r="E119" t="n">
         <v>0.2125057623706846</v>
       </c>
-      <c r="E119" t="n">
+      <c r="F119" t="n">
+        <v>0.4905660377358494</v>
+      </c>
+      <c r="G119" t="n">
         <v>0.1464968152866242</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.9985687126673383</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.9981103066575792</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.7869501147721993</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.9826292188753706</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" t="n">
+        <v>0.4128686327077748</v>
       </c>
     </row>
     <row r="120">
@@ -2480,13 +6070,43 @@
         <v>0.9917699423509536</v>
       </c>
       <c r="C120" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.5529747511550509</v>
       </c>
       <c r="D120" t="n">
+        <v>0.566628007933299</v>
+      </c>
+      <c r="E120" t="n">
         <v>0.2208189802497978</v>
       </c>
-      <c r="E120" t="n">
+      <c r="F120" t="n">
+        <v>0.4528301886792452</v>
+      </c>
+      <c r="G120" t="n">
         <v>0.1273885350318471</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.9983684799714396</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.997930221773726</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.7086646182002438</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.9842700119624287</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O120" t="n">
+        <v>0.4423592493297587</v>
       </c>
     </row>
     <row r="121">
@@ -2497,13 +6117,43 @@
         <v>0.9919595349046951</v>
       </c>
       <c r="C121" t="n">
-        <v>0.2821548350942842</v>
+        <v>0.5529604753675645</v>
       </c>
       <c r="D121" t="n">
+        <v>0.5998486394066613</v>
+      </c>
+      <c r="E121" t="n">
         <v>0.2811868593365801</v>
       </c>
-      <c r="E121" t="n">
+      <c r="F121" t="n">
+        <v>0.4339622641509422</v>
+      </c>
+      <c r="G121" t="n">
         <v>0.1146496815286624</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.9985402942866801</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.9981712827082834</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.6505070675988471</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.981289234280188</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O121" t="n">
+        <v>0.4021447721179625</v>
       </c>
     </row>
     <row r="122">
@@ -2517,10 +6167,40 @@
         <v>0</v>
       </c>
       <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
         <v>0.3703499298721652</v>
       </c>
-      <c r="E122" t="n">
+      <c r="F122" t="n">
+        <v>0.415094339622641</v>
+      </c>
+      <c r="G122" t="n">
         <v>0.09554140127388533</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.9952462285083109</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.9977582075240116</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.6833060359507753</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.9807111507994541</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O122" t="n">
+        <v>0.3941018766756032</v>
       </c>
     </row>
     <row r="123">
@@ -2534,10 +6214,40 @@
         <v>0</v>
       </c>
       <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="n">
         <v>0.2552117021942359</v>
       </c>
-      <c r="E123" t="n">
+      <c r="F123" t="n">
+        <v>0.415094339622641</v>
+      </c>
+      <c r="G123" t="n">
         <v>0.07643312101910826</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.9950232129977562</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.9974889277367742</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.7548506731960245</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.9834275684871278</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O123" t="n">
+        <v>0.4128686327077748</v>
       </c>
     </row>
     <row r="124">
@@ -2551,10 +6261,40 @@
         <v>0</v>
       </c>
       <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="n">
         <v>0.2320474278548725</v>
       </c>
-      <c r="E124" t="n">
+      <c r="F124" t="n">
+        <v>0.415094339622641</v>
+      </c>
+      <c r="G124" t="n">
         <v>0.04458598726114646</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.9938242680277586</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.9961108858432013</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.9618970566512602</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.9983337449731385</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O124" t="n">
+        <v>0.4128686327077748</v>
       </c>
     </row>
     <row r="125">
@@ -2568,10 +6308,40 @@
         <v>0</v>
       </c>
       <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
         <v>0.1174807155836945</v>
       </c>
-      <c r="E125" t="n">
+      <c r="F125" t="n">
+        <v>0.415094339622641</v>
+      </c>
+      <c r="G125" t="n">
         <v>0.03184713375796178</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.9963318477728472</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.9989452085863026</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.5362716851339961</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.9669481793166751</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O125" t="n">
+        <v>0.4128686327077748</v>
       </c>
     </row>
     <row r="126">
@@ -2585,10 +6355,40 @@
         <v>0</v>
       </c>
       <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="n">
         <v>0.2107810470895996</v>
       </c>
-      <c r="E126" t="n">
+      <c r="F126" t="n">
+        <v>0.4339622641509422</v>
+      </c>
+      <c r="G126" t="n">
         <v>0.01273885350318468</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.9949639186218953</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.9973756788226652</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.8373213481418396</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.983965977254543</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O126" t="n">
+        <v>0.4128686327077748</v>
       </c>
     </row>
     <row r="127">
@@ -2602,10 +6402,40 @@
         <v>0</v>
       </c>
       <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
         <v>0.2784645478584191</v>
       </c>
-      <c r="E127" t="n">
-        <v>0</v>
+      <c r="F127" t="n">
+        <v>0.4528301886792452</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.9936749909544018</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.9958961869959875</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O127" t="n">
+        <v>0.4128686327077748</v>
       </c>
     </row>
     <row r="128">
@@ -2619,10 +6449,40 @@
         <v>0</v>
       </c>
       <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
         <v>0.377573424144291</v>
       </c>
-      <c r="E128" t="n">
-        <v>0</v>
+      <c r="F128" t="n">
+        <v>0.4905660377358494</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.9972989887863565</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.3707296219929684</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.9546659025765803</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O128" t="n">
+        <v>0.4128686327077748</v>
       </c>
     </row>
     <row r="129">
@@ -2636,10 +6496,40 @@
         <v>0</v>
       </c>
       <c r="D129" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" t="n">
         <v>0.2548403561992914</v>
       </c>
-      <c r="E129" t="n">
+      <c r="F129" t="n">
+        <v>0.5094339622641506</v>
+      </c>
+      <c r="G129" t="n">
         <v>0.006369426751592328</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.9960796056049552</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.9986000462214157</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.4356150255383813</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.9698313082519218</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O129" t="n">
+        <v>0.4128686327077748</v>
       </c>
     </row>
     <row r="130">
@@ -2653,10 +6543,40 @@
         <v>0</v>
       </c>
       <c r="D130" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" t="n">
         <v>0.1241733444877055</v>
       </c>
-      <c r="E130" t="n">
+      <c r="F130" t="n">
+        <v>0.547169811320753</v>
+      </c>
+      <c r="G130" t="n">
         <v>0.02547770700636942</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.9958193268772073</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.9982902636454803</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.5617259035703712</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.9730170184310524</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O130" t="n">
+        <v>0.4128686327077748</v>
       </c>
     </row>
     <row r="131">
@@ -2670,10 +6590,40 @@
         <v>0</v>
       </c>
       <c r="D131" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" t="n">
         <v>0.2517029261671794</v>
       </c>
-      <c r="E131" t="n">
-        <v>0</v>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.9957020030181494</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.9981431738858986</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.5863861258720136</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0.9744176722955573</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O131" t="n">
+        <v>0.4128686327077748</v>
       </c>
     </row>
     <row r="132">
@@ -2687,10 +6637,40 @@
         <v>0</v>
       </c>
       <c r="D132" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" t="n">
         <v>0.2867099164328524</v>
       </c>
-      <c r="E132" t="n">
-        <v>0</v>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.9966383817809267</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0.9991937443232962</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.4252858022654106</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0.9626555518560601</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O132" t="n">
+        <v>0.4128686327077748</v>
       </c>
     </row>
     <row r="133">
@@ -2708,6 +6688,36 @@
       </c>
       <c r="E133" t="n">
         <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.9967843952623199</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0.9993463718601215</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.9607671626147806</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O133" t="n">
+        <v>0.418230563002681</v>
       </c>
     </row>
   </sheetData>
